--- a/BabbleAcoustic/Acoustic_characteristics_dataset_age_language.xlsx
+++ b/BabbleAcoustic/Acoustic_characteristics_dataset_age_language.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Soderstrom-Lab\CurrentStudies\BabblepaperOCS\results\ResultsTTL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CurrentStudies\BabblepaperOCS\results\ResultsTTL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A79FCB0-3136-4E10-A11C-C0B8BC46D92B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EF5CB6-044A-4241-B770-9C69AC674DF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultsfile$" sheetId="1" r:id="rId1"/>
@@ -43,25 +43,28 @@
     <t>Count</t>
   </si>
   <si>
-    <t>f0_midpt</t>
+    <t>intens_midpt(dB)</t>
   </si>
   <si>
-    <t>f1_midpt</t>
+    <t>f2_midpt(HZ)</t>
   </si>
   <si>
-    <t>f2_midpt</t>
+    <t>f1_midpt(HZ)</t>
   </si>
   <si>
-    <t>intens_midpt</t>
+    <t>mean_pitch(HZ)</t>
   </si>
   <si>
-    <t>mean_pitch</t>
+    <t>f0_midpt(HZ)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -548,9 +551,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -909,12 +913,14 @@
   <dimension ref="A1:I219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -932,19 +938,19 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -960,20 +966,20 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>205.182214250371</v>
       </c>
       <c r="F2">
+        <v>203</v>
+      </c>
+      <c r="G2" s="2">
         <v>711.29512379129096</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="2">
         <v>4952.8217759480503</v>
       </c>
-      <c r="H2">
+      <c r="I2" s="2">
         <v>67.660059917918502</v>
-      </c>
-      <c r="I2">
-        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -989,20 +995,20 @@
       <c r="D3" t="s">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>209.66751918011201</v>
       </c>
       <c r="F3">
+        <v>213</v>
+      </c>
+      <c r="G3" s="2">
         <v>719.64261350134404</v>
       </c>
-      <c r="G3">
+      <c r="H3" s="2">
         <v>4439.6100066264898</v>
       </c>
-      <c r="H3">
+      <c r="I3" s="2">
         <v>76.198608632165602</v>
-      </c>
-      <c r="I3">
-        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1018,20 +1024,20 @@
       <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>235.28016474760699</v>
       </c>
       <c r="F4">
+        <v>232</v>
+      </c>
+      <c r="G4" s="2">
         <v>1335.91411864815</v>
       </c>
-      <c r="G4">
+      <c r="H4" s="2">
         <v>3286.40470048623</v>
       </c>
-      <c r="H4">
+      <c r="I4" s="2">
         <v>66.351935731217594</v>
-      </c>
-      <c r="I4">
-        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1047,20 +1053,20 @@
       <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>347.36256852675803</v>
       </c>
       <c r="F5">
+        <v>320</v>
+      </c>
+      <c r="G5" s="2">
         <v>1546.8112503411601</v>
       </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="H5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
         <v>72.435509115004095</v>
-      </c>
-      <c r="I5">
-        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1076,20 +1082,20 @@
       <c r="D6" t="s">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>226.17606601166199</v>
       </c>
       <c r="F6">
+        <v>220</v>
+      </c>
+      <c r="G6" s="2">
         <v>806.90404559945705</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="2">
         <v>3504.5225397079198</v>
       </c>
-      <c r="H6">
+      <c r="I6" s="2">
         <v>75.791439006468593</v>
-      </c>
-      <c r="I6">
-        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1105,20 +1111,20 @@
       <c r="D7" t="s">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>211.716307131614</v>
       </c>
       <c r="F7">
+        <v>233</v>
+      </c>
+      <c r="G7" s="2">
         <v>990.96461633817501</v>
       </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="H7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
         <v>80.932903856338996</v>
-      </c>
-      <c r="I7">
-        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1134,20 +1140,20 @@
       <c r="D8" t="s">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>257.88207706682698</v>
       </c>
       <c r="F8">
+        <v>253</v>
+      </c>
+      <c r="G8" s="2">
         <v>1608.8745177251201</v>
       </c>
-      <c r="G8">
+      <c r="H8" s="2">
         <v>2808.1089602177499</v>
       </c>
-      <c r="H8">
+      <c r="I8" s="2">
         <v>71.035239466881805</v>
-      </c>
-      <c r="I8">
-        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1163,20 +1169,20 @@
       <c r="D9" t="s">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F9">
+        <v>249</v>
+      </c>
+      <c r="G9" s="2">
         <v>1348.8983236897</v>
       </c>
-      <c r="G9">
+      <c r="H9" s="2">
         <v>3384.09252974336</v>
       </c>
-      <c r="H9">
+      <c r="I9" s="2">
         <v>57.9017960448585</v>
-      </c>
-      <c r="I9">
-        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1192,20 +1198,20 @@
       <c r="D10" t="s">
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>310.86325659709797</v>
       </c>
       <c r="F10">
+        <v>320</v>
+      </c>
+      <c r="G10" s="2">
         <v>958.97459010287298</v>
       </c>
-      <c r="G10">
+      <c r="H10" s="2">
         <v>4443.18537126922</v>
       </c>
-      <c r="H10">
+      <c r="I10" s="2">
         <v>67.537326104287303</v>
-      </c>
-      <c r="I10">
-        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1221,20 +1227,20 @@
       <c r="D11" t="s">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>355.01266336060502</v>
       </c>
       <c r="F11">
+        <v>291</v>
+      </c>
+      <c r="G11" s="2">
         <v>758.81365049938904</v>
       </c>
-      <c r="G11">
+      <c r="H11" s="2">
         <v>3206.7249139925102</v>
       </c>
-      <c r="H11">
+      <c r="I11" s="2">
         <v>56.989959194010702</v>
-      </c>
-      <c r="I11">
-        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1250,20 +1256,20 @@
       <c r="D12" t="s">
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>390.08691627343001</v>
       </c>
       <c r="F12">
+        <v>377</v>
+      </c>
+      <c r="G12" s="2">
         <v>4252.6128161922998</v>
       </c>
-      <c r="G12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12">
+      <c r="H12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
         <v>75.285608038224595</v>
-      </c>
-      <c r="I12">
-        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1279,20 +1285,20 @@
       <c r="D13" t="s">
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>300.32954486803698</v>
       </c>
       <c r="F13">
+        <v>297</v>
+      </c>
+      <c r="G13" s="2">
         <v>1026.2977632910699</v>
       </c>
-      <c r="G13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13">
+      <c r="H13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
         <v>76.679182928572502</v>
-      </c>
-      <c r="I13">
-        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1308,20 +1314,20 @@
       <c r="D14" t="s">
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>308.58862487872102</v>
       </c>
       <c r="F14">
+        <v>273</v>
+      </c>
+      <c r="G14" s="2">
         <v>1023.54696856111</v>
       </c>
-      <c r="G14">
+      <c r="H14" s="2">
         <v>4312.7387307139898</v>
       </c>
-      <c r="H14">
+      <c r="I14" s="2">
         <v>68.7028888926435</v>
-      </c>
-      <c r="I14">
-        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1337,20 +1343,20 @@
       <c r="D15" t="s">
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>303.39181331441802</v>
       </c>
       <c r="F15">
+        <v>301</v>
+      </c>
+      <c r="G15" s="2">
         <v>3676.4548510169502</v>
       </c>
-      <c r="G15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15">
+      <c r="H15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
         <v>76.059692320971706</v>
-      </c>
-      <c r="I15">
-        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1366,20 +1372,20 @@
       <c r="D16" t="s">
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>147.734385259459</v>
       </c>
       <c r="F16">
+        <v>249</v>
+      </c>
+      <c r="G16" s="2">
         <v>1726.2056371035001</v>
       </c>
-      <c r="G16">
+      <c r="H16" s="2">
         <v>4209.33431354599</v>
       </c>
-      <c r="H16">
+      <c r="I16" s="2">
         <v>48.5180616973852</v>
-      </c>
-      <c r="I16">
-        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1395,20 +1401,20 @@
       <c r="D17" t="s">
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>204.951646866499</v>
       </c>
       <c r="F17">
+        <v>220</v>
+      </c>
+      <c r="G17" s="2">
         <v>2710.8963829378499</v>
       </c>
-      <c r="G17" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17">
+      <c r="H17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
         <v>70.445790779282007</v>
-      </c>
-      <c r="I17">
-        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1424,20 +1430,20 @@
       <c r="D18" t="s">
         <v>0</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>127.315612101837</v>
       </c>
       <c r="F18">
+        <v>173</v>
+      </c>
+      <c r="G18" s="2">
         <v>1370.85664615263</v>
       </c>
-      <c r="G18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18">
+      <c r="H18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
         <v>80.544904188433506</v>
-      </c>
-      <c r="I18">
-        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1453,20 +1459,20 @@
       <c r="D19" t="s">
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>338.51331890649902</v>
       </c>
       <c r="F19">
+        <v>309</v>
+      </c>
+      <c r="G19" s="2">
         <v>694.14071404866695</v>
       </c>
-      <c r="G19">
+      <c r="H19" s="2">
         <v>3347.5697586329602</v>
       </c>
-      <c r="H19">
+      <c r="I19" s="2">
         <v>80.952884034002196</v>
-      </c>
-      <c r="I19">
-        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1482,20 +1488,20 @@
       <c r="D20" t="s">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F20">
+        <v>206</v>
+      </c>
+      <c r="G20" s="2">
         <v>564.41134692149603</v>
       </c>
-      <c r="G20">
+      <c r="H20" s="2">
         <v>3933.94272435931</v>
       </c>
-      <c r="H20">
+      <c r="I20" s="2">
         <v>81.0537264132102</v>
-      </c>
-      <c r="I20">
-        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1511,20 +1517,20 @@
       <c r="D21" t="s">
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>250.99376189724799</v>
       </c>
       <c r="F21">
+        <v>241</v>
+      </c>
+      <c r="G21" s="2">
         <v>1373.3421525607801</v>
       </c>
-      <c r="G21">
+      <c r="H21" s="2">
         <v>2019.3917918884699</v>
       </c>
-      <c r="H21">
+      <c r="I21" s="2">
         <v>78.248343248790107</v>
-      </c>
-      <c r="I21">
-        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1540,20 +1546,20 @@
       <c r="D22" t="s">
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>201.56280203601699</v>
       </c>
       <c r="F22">
+        <v>197</v>
+      </c>
+      <c r="G22" s="2">
         <v>440.470081083313</v>
       </c>
-      <c r="G22">
+      <c r="H22" s="2">
         <v>4268.2798468440496</v>
       </c>
-      <c r="H22">
+      <c r="I22" s="2">
         <v>76.2894478123971</v>
-      </c>
-      <c r="I22">
-        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1569,20 +1575,20 @@
       <c r="D23" t="s">
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>140.202488666189</v>
       </c>
       <c r="F23">
+        <v>184</v>
+      </c>
+      <c r="G23" s="2">
         <v>2134.9435596603798</v>
       </c>
-      <c r="G23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23">
+      <c r="H23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
         <v>74.760172713149601</v>
-      </c>
-      <c r="I23">
-        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1598,20 +1604,20 @@
       <c r="D24" t="s">
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>263.94054475214602</v>
       </c>
       <c r="F24">
+        <v>235</v>
+      </c>
+      <c r="G24" s="2">
         <v>1241.360519973</v>
       </c>
-      <c r="G24">
+      <c r="H24" s="2">
         <v>4376.31447858515</v>
       </c>
-      <c r="H24">
+      <c r="I24" s="2">
         <v>76.126185593727001</v>
-      </c>
-      <c r="I24">
-        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1627,20 +1633,20 @@
       <c r="D25" t="s">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F25">
+        <v>231</v>
+      </c>
+      <c r="G25" s="2">
         <v>1227.04610395847</v>
       </c>
-      <c r="G25">
+      <c r="H25" s="2">
         <v>3229.28420973936</v>
       </c>
-      <c r="H25">
+      <c r="I25" s="2">
         <v>90.498053099474902</v>
-      </c>
-      <c r="I25">
-        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1656,20 +1662,20 @@
       <c r="D26" t="s">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F26">
+        <v>271</v>
+      </c>
+      <c r="G26" s="2">
         <v>2184.7387861382699</v>
       </c>
-      <c r="G26">
+      <c r="H26" s="2">
         <v>4590.4844979673298</v>
       </c>
-      <c r="H26">
+      <c r="I26" s="2">
         <v>51.361399775914997</v>
-      </c>
-      <c r="I26">
-        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1685,20 +1691,20 @@
       <c r="D27" t="s">
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>299.00582886709202</v>
       </c>
       <c r="F27">
+        <v>293</v>
+      </c>
+      <c r="G27" s="2">
         <v>1031.47978191321</v>
       </c>
-      <c r="G27">
+      <c r="H27" s="2">
         <v>2754.7914109391199</v>
       </c>
-      <c r="H27">
+      <c r="I27" s="2">
         <v>74.657724113506902</v>
-      </c>
-      <c r="I27">
-        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1714,20 +1720,20 @@
       <c r="D28" t="s">
         <v>0</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>337.09701114991702</v>
       </c>
       <c r="F28">
+        <v>340</v>
+      </c>
+      <c r="G28" s="2">
         <v>1410.0821220841401</v>
       </c>
-      <c r="G28">
+      <c r="H28" s="2">
         <v>4312.64306580634</v>
       </c>
-      <c r="H28">
+      <c r="I28" s="2">
         <v>69.233849587778593</v>
-      </c>
-      <c r="I28">
-        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1743,20 +1749,20 @@
       <c r="D29" t="s">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F29">
+        <v>334</v>
+      </c>
+      <c r="G29" s="2">
         <v>4300.8208920678599</v>
       </c>
-      <c r="G29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29">
+      <c r="H29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
         <v>58.398599908752601</v>
-      </c>
-      <c r="I29">
-        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1772,20 +1778,20 @@
       <c r="D30" t="s">
         <v>0</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>379.796200849039</v>
       </c>
       <c r="F30">
+        <v>312</v>
+      </c>
+      <c r="G30" s="2">
         <v>1119.37018264375</v>
       </c>
-      <c r="G30">
+      <c r="H30" s="2">
         <v>2770.7221557984099</v>
       </c>
-      <c r="H30">
+      <c r="I30" s="2">
         <v>79.742465641348105</v>
-      </c>
-      <c r="I30">
-        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1801,20 +1807,20 @@
       <c r="D31" t="s">
         <v>0</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>316.24032599404001</v>
       </c>
       <c r="F31">
+        <v>278</v>
+      </c>
+      <c r="G31" s="2">
         <v>883.29840937084896</v>
       </c>
-      <c r="G31">
+      <c r="H31" s="2">
         <v>3824.1467457059598</v>
       </c>
-      <c r="H31">
+      <c r="I31" s="2">
         <v>53.499039189800499</v>
-      </c>
-      <c r="I31">
-        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1830,20 +1836,20 @@
       <c r="D32" t="s">
         <v>0</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>324.11606310757298</v>
       </c>
       <c r="F32">
+        <v>325</v>
+      </c>
+      <c r="G32" s="2">
         <v>1829.7808210754199</v>
       </c>
-      <c r="G32">
+      <c r="H32" s="2">
         <v>3259.14114212205</v>
       </c>
-      <c r="H32">
+      <c r="I32" s="2">
         <v>79.190505756120899</v>
-      </c>
-      <c r="I32">
-        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1859,20 +1865,20 @@
       <c r="D33" t="s">
         <v>0</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>295.98905640205999</v>
       </c>
       <c r="F33">
+        <v>288</v>
+      </c>
+      <c r="G33" s="2">
         <v>1808.6420683971901</v>
       </c>
-      <c r="G33">
+      <c r="H33" s="2">
         <v>3743.4928618966201</v>
       </c>
-      <c r="H33">
+      <c r="I33" s="2">
         <v>67.426711862479706</v>
-      </c>
-      <c r="I33">
-        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1888,20 +1894,20 @@
       <c r="D34" t="s">
         <v>0</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>200.517593339613</v>
       </c>
       <c r="F34">
+        <v>276</v>
+      </c>
+      <c r="G34" s="2">
         <v>843.77977282557902</v>
       </c>
-      <c r="G34">
+      <c r="H34" s="2">
         <v>2850.3352967586102</v>
       </c>
-      <c r="H34">
+      <c r="I34" s="2">
         <v>77.896535525520093</v>
-      </c>
-      <c r="I34">
-        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1917,20 +1923,20 @@
       <c r="D35" t="s">
         <v>0</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>252.99228741940999</v>
       </c>
       <c r="F35">
+        <v>258</v>
+      </c>
+      <c r="G35" s="2">
         <v>299.02719673142201</v>
       </c>
-      <c r="G35">
+      <c r="H35" s="2">
         <v>4526.0078460204504</v>
       </c>
-      <c r="H35">
+      <c r="I35" s="2">
         <v>65.191056973492493</v>
-      </c>
-      <c r="I35">
-        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1946,20 +1952,20 @@
       <c r="D36" t="s">
         <v>0</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>333.917720822825</v>
       </c>
       <c r="F36">
+        <v>324</v>
+      </c>
+      <c r="G36" s="2">
         <v>1947.8359577189101</v>
       </c>
-      <c r="G36">
+      <c r="H36" s="2">
         <v>2702.0390645518601</v>
       </c>
-      <c r="H36">
+      <c r="I36" s="2">
         <v>77.616890087970901</v>
-      </c>
-      <c r="I36">
-        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1975,20 +1981,20 @@
       <c r="D37" t="s">
         <v>0</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>149.38572205543201</v>
       </c>
       <c r="F37">
+        <v>305</v>
+      </c>
+      <c r="G37" s="2">
         <v>575.86415050883102</v>
       </c>
-      <c r="G37">
+      <c r="H37" s="2">
         <v>4083.9140606517099</v>
       </c>
-      <c r="H37">
+      <c r="I37" s="2">
         <v>70.006026685145599</v>
-      </c>
-      <c r="I37">
-        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2004,20 +2010,20 @@
       <c r="D38" t="s">
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>275.26246318672798</v>
       </c>
       <c r="F38">
+        <v>274</v>
+      </c>
+      <c r="G38" s="2">
         <v>849.87639797193197</v>
       </c>
-      <c r="G38">
+      <c r="H38" s="2">
         <v>3417.3848911375599</v>
       </c>
-      <c r="H38">
+      <c r="I38" s="2">
         <v>83.250461719042605</v>
-      </c>
-      <c r="I38">
-        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2033,20 +2039,20 @@
       <c r="D39" t="s">
         <v>0</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F39">
+        <v>190</v>
+      </c>
+      <c r="G39" s="2">
         <v>1094.48577595956</v>
       </c>
-      <c r="G39">
+      <c r="H39" s="2">
         <v>4292.8028884728201</v>
       </c>
-      <c r="H39">
+      <c r="I39" s="2">
         <v>64.393290968598606</v>
-      </c>
-      <c r="I39">
-        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2062,20 +2068,20 @@
       <c r="D40" t="s">
         <v>0</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>361.52103718317102</v>
       </c>
       <c r="F40">
+        <v>321</v>
+      </c>
+      <c r="G40" s="2">
         <v>765.73747542190301</v>
       </c>
-      <c r="G40" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40">
+      <c r="H40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
         <v>69.713668322851902</v>
-      </c>
-      <c r="I40">
-        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2091,20 +2097,20 @@
       <c r="D41" t="s">
         <v>0</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F41">
+        <v>374</v>
+      </c>
+      <c r="G41" s="2">
         <v>2921.7552078724402</v>
       </c>
-      <c r="G41" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41">
+      <c r="H41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
         <v>44.964585771792898</v>
-      </c>
-      <c r="I41">
-        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2120,20 +2126,20 @@
       <c r="D42" t="s">
         <v>0</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>254.422946790488</v>
       </c>
       <c r="F42">
+        <v>258</v>
+      </c>
+      <c r="G42" s="2">
         <v>2935.4374668293399</v>
       </c>
-      <c r="G42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H42">
+      <c r="H42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
         <v>67.555017315803795</v>
-      </c>
-      <c r="I42">
-        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2149,20 +2155,20 @@
       <c r="D43" t="s">
         <v>0</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>200.19942038182199</v>
       </c>
       <c r="F43">
+        <v>203</v>
+      </c>
+      <c r="G43" s="2">
         <v>596.659029085371</v>
       </c>
-      <c r="G43">
+      <c r="H43" s="2">
         <v>4663.5026654085896</v>
       </c>
-      <c r="H43">
+      <c r="I43" s="2">
         <v>64.131740765459298</v>
-      </c>
-      <c r="I43">
-        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2178,20 +2184,20 @@
       <c r="D44" t="s">
         <v>0</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>349.05696724560698</v>
       </c>
       <c r="F44">
+        <v>335</v>
+      </c>
+      <c r="G44" s="2">
         <v>512.41339951901898</v>
       </c>
-      <c r="G44">
+      <c r="H44" s="2">
         <v>2868.6421962478898</v>
       </c>
-      <c r="H44">
+      <c r="I44" s="2">
         <v>80.206145270906504</v>
-      </c>
-      <c r="I44">
-        <v>335</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2207,20 +2213,20 @@
       <c r="D45" t="s">
         <v>2</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>211.873240952315</v>
       </c>
       <c r="F45">
+        <v>180</v>
+      </c>
+      <c r="G45" s="2">
         <v>1362.7278554362699</v>
       </c>
-      <c r="G45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45">
+      <c r="H45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2">
         <v>75.343996964755306</v>
-      </c>
-      <c r="I45">
-        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2236,20 +2242,20 @@
       <c r="D46" t="s">
         <v>0</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>217.20122298194499</v>
       </c>
       <c r="F46">
+        <v>214</v>
+      </c>
+      <c r="G46" s="2">
         <v>758.95199235923201</v>
       </c>
-      <c r="G46" t="s">
-        <v>1</v>
-      </c>
-      <c r="H46">
+      <c r="H46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
         <v>70.394553844449703</v>
-      </c>
-      <c r="I46">
-        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2265,20 +2271,20 @@
       <c r="D47" t="s">
         <v>0</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>246.22014271438599</v>
       </c>
       <c r="F47">
+        <v>338</v>
+      </c>
+      <c r="G47" s="2">
         <v>2231.69254855489</v>
       </c>
-      <c r="G47" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47">
+      <c r="H47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2">
         <v>67.684424867758295</v>
-      </c>
-      <c r="I47">
-        <v>338</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2294,20 +2300,20 @@
       <c r="D48" t="s">
         <v>0</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F48">
+        <v>101</v>
+      </c>
+      <c r="G48" s="2">
         <v>2351.5233572430402</v>
       </c>
-      <c r="G48">
+      <c r="H48" s="2">
         <v>3805.2678665450699</v>
       </c>
-      <c r="H48">
+      <c r="I48" s="2">
         <v>77.979461043889302</v>
-      </c>
-      <c r="I48">
-        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2323,20 +2329,20 @@
       <c r="D49" t="s">
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <v>368.409820479134</v>
       </c>
       <c r="F49">
+        <v>365</v>
+      </c>
+      <c r="G49" s="2">
         <v>393.56569181070302</v>
       </c>
-      <c r="G49">
+      <c r="H49" s="2">
         <v>4292.9139352889997</v>
       </c>
-      <c r="H49">
+      <c r="I49" s="2">
         <v>80.543364438345293</v>
-      </c>
-      <c r="I49">
-        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2352,20 +2358,20 @@
       <c r="D50" t="s">
         <v>0</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>206.22854500302901</v>
       </c>
       <c r="F50">
+        <v>302</v>
+      </c>
+      <c r="G50" s="2">
         <v>521.35575951126395</v>
       </c>
-      <c r="G50">
+      <c r="H50" s="2">
         <v>3421.6621576241901</v>
       </c>
-      <c r="H50">
+      <c r="I50" s="2">
         <v>78.002512977163406</v>
-      </c>
-      <c r="I50">
-        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2381,20 +2387,20 @@
       <c r="D51" t="s">
         <v>0</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>388.92380899565501</v>
       </c>
       <c r="F51">
+        <v>282</v>
+      </c>
+      <c r="G51" s="2">
         <v>3597.1822198575201</v>
       </c>
-      <c r="G51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H51">
+      <c r="H51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2">
         <v>78.210611120985504</v>
-      </c>
-      <c r="I51">
-        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2410,20 +2416,20 @@
       <c r="D52" t="s">
         <v>0</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>240.75480462586799</v>
       </c>
       <c r="F52">
+        <v>226</v>
+      </c>
+      <c r="G52" s="2">
         <v>2108.1039019056898</v>
       </c>
-      <c r="G52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H52">
+      <c r="H52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2">
         <v>62.998870149871799</v>
-      </c>
-      <c r="I52">
-        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2439,20 +2445,20 @@
       <c r="D53" t="s">
         <v>0</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <v>216.56257943656999</v>
       </c>
       <c r="F53">
+        <v>208</v>
+      </c>
+      <c r="G53" s="2">
         <v>552.35875429434498</v>
       </c>
-      <c r="G53">
+      <c r="H53" s="2">
         <v>3957.6495654540099</v>
       </c>
-      <c r="H53">
+      <c r="I53" s="2">
         <v>79.718832391576896</v>
-      </c>
-      <c r="I53">
-        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2468,20 +2474,20 @@
       <c r="D54" t="s">
         <v>0</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <v>308.78625948723902</v>
       </c>
       <c r="F54">
+        <v>307</v>
+      </c>
+      <c r="G54" s="2">
         <v>650.22688044746496</v>
       </c>
-      <c r="G54">
+      <c r="H54" s="2">
         <v>4443.6186084992196</v>
       </c>
-      <c r="H54">
+      <c r="I54" s="2">
         <v>72.823716706390201</v>
-      </c>
-      <c r="I54">
-        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2497,20 +2503,20 @@
       <c r="D55" t="s">
         <v>0</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>304.95469625098099</v>
       </c>
       <c r="F55">
+        <v>321</v>
+      </c>
+      <c r="G55" s="2">
         <v>670.51329250896697</v>
       </c>
-      <c r="G55">
+      <c r="H55" s="2">
         <v>2701.9659072259401</v>
       </c>
-      <c r="H55">
+      <c r="I55" s="2">
         <v>79.730183611182596</v>
-      </c>
-      <c r="I55">
-        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2526,20 +2532,20 @@
       <c r="D56" t="s">
         <v>0</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <v>252.89017290259201</v>
       </c>
       <c r="F56">
+        <v>249</v>
+      </c>
+      <c r="G56" s="2">
         <v>1089.17105285772</v>
       </c>
-      <c r="G56">
+      <c r="H56" s="2">
         <v>4664.8243642473699</v>
       </c>
-      <c r="H56">
+      <c r="I56" s="2">
         <v>84.111587911590306</v>
-      </c>
-      <c r="I56">
-        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2555,20 +2561,20 @@
       <c r="D57" t="s">
         <v>0</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>234.685094428253</v>
       </c>
       <c r="F57">
+        <v>241</v>
+      </c>
+      <c r="G57" s="2">
         <v>386.449865186728</v>
       </c>
-      <c r="G57">
+      <c r="H57" s="2">
         <v>4891.2970510924197</v>
       </c>
-      <c r="H57">
+      <c r="I57" s="2">
         <v>73.863146485276303</v>
-      </c>
-      <c r="I57">
-        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2584,20 +2590,20 @@
       <c r="D58" t="s">
         <v>0</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>203.669805568058</v>
       </c>
-      <c r="F58" t="s">
-        <v>1</v>
-      </c>
-      <c r="G58" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58">
+      <c r="F58">
+        <v>233</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2">
         <v>79.725318789787295</v>
-      </c>
-      <c r="I58">
-        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2613,20 +2619,20 @@
       <c r="D59" t="s">
         <v>0</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>258.25928833493703</v>
       </c>
       <c r="F59">
+        <v>262</v>
+      </c>
+      <c r="G59" s="2">
         <v>692.39991299258395</v>
       </c>
-      <c r="G59">
+      <c r="H59" s="2">
         <v>4218.1194383747797</v>
       </c>
-      <c r="H59">
+      <c r="I59" s="2">
         <v>72.759795695236306</v>
-      </c>
-      <c r="I59">
-        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2642,20 +2648,20 @@
       <c r="D60" t="s">
         <v>0</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
         <v>216.23021199097701</v>
       </c>
       <c r="F60">
+        <v>202</v>
+      </c>
+      <c r="G60" s="2">
         <v>1052.3310757162701</v>
       </c>
-      <c r="G60">
+      <c r="H60" s="2">
         <v>4206.54676482176</v>
       </c>
-      <c r="H60">
+      <c r="I60" s="2">
         <v>78.514405765435498</v>
-      </c>
-      <c r="I60">
-        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2671,20 +2677,20 @@
       <c r="D61" t="s">
         <v>0</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <v>239.40526136616299</v>
       </c>
       <c r="F61">
+        <v>237</v>
+      </c>
+      <c r="G61" s="2">
         <v>1723.8971080782101</v>
       </c>
-      <c r="G61">
+      <c r="H61" s="2">
         <v>4047.6034085247402</v>
       </c>
-      <c r="H61">
+      <c r="I61" s="2">
         <v>75.943207179758105</v>
-      </c>
-      <c r="I61">
-        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2700,20 +2706,20 @@
       <c r="D62" t="s">
         <v>0</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
         <v>249.524581842956</v>
       </c>
       <c r="F62">
+        <v>272</v>
+      </c>
+      <c r="G62" s="2">
         <v>990.39417153860097</v>
       </c>
-      <c r="G62" t="s">
-        <v>1</v>
-      </c>
-      <c r="H62">
+      <c r="H62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I62" s="2">
         <v>66.554494001078893</v>
-      </c>
-      <c r="I62">
-        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2729,20 +2735,20 @@
       <c r="D63" t="s">
         <v>0</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2">
         <v>194.36964804228299</v>
       </c>
       <c r="F63">
+        <v>205</v>
+      </c>
+      <c r="G63" s="2">
         <v>1255.1175211969501</v>
       </c>
-      <c r="G63">
+      <c r="H63" s="2">
         <v>4265.4565282102703</v>
       </c>
-      <c r="H63">
+      <c r="I63" s="2">
         <v>70.600537387877594</v>
-      </c>
-      <c r="I63">
-        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2758,20 +2764,20 @@
       <c r="D64" t="s">
         <v>0</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="2">
         <v>347.19075316641198</v>
       </c>
       <c r="F64">
+        <v>260</v>
+      </c>
+      <c r="G64" s="2">
         <v>972.06593460983402</v>
       </c>
-      <c r="G64">
+      <c r="H64" s="2">
         <v>2900.6782755188701</v>
       </c>
-      <c r="H64">
+      <c r="I64" s="2">
         <v>65.733464648820302</v>
-      </c>
-      <c r="I64">
-        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2787,20 +2793,20 @@
       <c r="D65" t="s">
         <v>0</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="2">
         <v>209.426394386444</v>
       </c>
       <c r="F65">
+        <v>179</v>
+      </c>
+      <c r="G65" s="2">
         <v>897.73285334968</v>
       </c>
-      <c r="G65">
+      <c r="H65" s="2">
         <v>3760.7106209365502</v>
       </c>
-      <c r="H65">
+      <c r="I65" s="2">
         <v>75.189891522925905</v>
-      </c>
-      <c r="I65">
-        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2816,20 +2822,20 @@
       <c r="D66" t="s">
         <v>0</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="2">
         <v>249.86087932255899</v>
       </c>
       <c r="F66">
+        <v>286</v>
+      </c>
+      <c r="G66" s="2">
         <v>528.582501864341</v>
       </c>
-      <c r="G66">
+      <c r="H66" s="2">
         <v>3873.1166841172899</v>
       </c>
-      <c r="H66">
+      <c r="I66" s="2">
         <v>71.138448322580203</v>
-      </c>
-      <c r="I66">
-        <v>286</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2845,20 +2851,20 @@
       <c r="D67" t="s">
         <v>0</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="2">
         <v>286.37926844374601</v>
       </c>
       <c r="F67">
+        <v>287</v>
+      </c>
+      <c r="G67" s="2">
         <v>361.65062488860298</v>
       </c>
-      <c r="G67">
+      <c r="H67" s="2">
         <v>3714.0617472358599</v>
       </c>
-      <c r="H67">
+      <c r="I67" s="2">
         <v>81.068585718863005</v>
-      </c>
-      <c r="I67">
-        <v>287</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2874,20 +2880,20 @@
       <c r="D68" t="s">
         <v>0</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="2">
         <v>313.48940507758698</v>
       </c>
       <c r="F68">
+        <v>327</v>
+      </c>
+      <c r="G68" s="2">
         <v>716.43114722801602</v>
       </c>
-      <c r="G68">
+      <c r="H68" s="2">
         <v>4931.7766725182801</v>
       </c>
-      <c r="H68">
+      <c r="I68" s="2">
         <v>70.693953091420099</v>
-      </c>
-      <c r="I68">
-        <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2903,20 +2909,20 @@
       <c r="D69" t="s">
         <v>0</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="2">
         <v>236.190274849346</v>
       </c>
       <c r="F69">
+        <v>229</v>
+      </c>
+      <c r="G69" s="2">
         <v>1463.91645389889</v>
       </c>
-      <c r="G69">
+      <c r="H69" s="2">
         <v>4323.0244476804</v>
       </c>
-      <c r="H69">
+      <c r="I69" s="2">
         <v>71.348636095720806</v>
-      </c>
-      <c r="I69">
-        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2932,20 +2938,20 @@
       <c r="D70" t="s">
         <v>0</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="2">
         <v>252.61786464450799</v>
       </c>
       <c r="F70">
+        <v>256</v>
+      </c>
+      <c r="G70" s="2">
         <v>2294.6065614955201</v>
       </c>
-      <c r="G70">
+      <c r="H70" s="2">
         <v>4383.8153346405797</v>
       </c>
-      <c r="H70">
+      <c r="I70" s="2">
         <v>77.526632712517298</v>
-      </c>
-      <c r="I70">
-        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2961,20 +2967,20 @@
       <c r="D71" t="s">
         <v>0</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
         <v>290.59987488551002</v>
       </c>
       <c r="F71">
+        <v>287</v>
+      </c>
+      <c r="G71" s="2">
         <v>4407.65845341356</v>
       </c>
-      <c r="G71" t="s">
-        <v>1</v>
-      </c>
-      <c r="H71">
+      <c r="H71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I71" s="2">
         <v>72.755732753491799</v>
-      </c>
-      <c r="I71">
-        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2990,20 +2996,20 @@
       <c r="D72" t="s">
         <v>0</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="2">
         <v>287.630060926086</v>
       </c>
       <c r="F72">
+        <v>279</v>
+      </c>
+      <c r="G72" s="2">
         <v>991.50992234914395</v>
       </c>
-      <c r="G72">
+      <c r="H72" s="2">
         <v>1888.1650406262299</v>
       </c>
-      <c r="H72">
+      <c r="I72" s="2">
         <v>68.390714292880602</v>
-      </c>
-      <c r="I72">
-        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3019,20 +3025,20 @@
       <c r="D73" t="s">
         <v>0</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="2">
         <v>183.624205246673</v>
       </c>
       <c r="F73">
+        <v>185</v>
+      </c>
+      <c r="G73" s="2">
         <v>1143.8573227075599</v>
       </c>
-      <c r="G73" t="s">
-        <v>1</v>
-      </c>
-      <c r="H73">
+      <c r="H73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I73" s="2">
         <v>74.751584856922605</v>
-      </c>
-      <c r="I73">
-        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3048,20 +3054,20 @@
       <c r="D74" t="s">
         <v>0</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="2">
         <v>276.46624532249501</v>
       </c>
       <c r="F74">
+        <v>268</v>
+      </c>
+      <c r="G74" s="2">
         <v>819.61263052894105</v>
       </c>
-      <c r="G74" t="s">
-        <v>1</v>
-      </c>
-      <c r="H74">
+      <c r="H74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I74" s="2">
         <v>78.074541197409005</v>
-      </c>
-      <c r="I74">
-        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3077,20 +3083,20 @@
       <c r="D75" t="s">
         <v>0</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="2">
         <v>313.54053084109597</v>
       </c>
       <c r="F75">
+        <v>319</v>
+      </c>
+      <c r="G75" s="2">
         <v>4560.9836073711303</v>
       </c>
-      <c r="G75" t="s">
-        <v>1</v>
-      </c>
-      <c r="H75">
+      <c r="H75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I75" s="2">
         <v>72.685327242969706</v>
-      </c>
-      <c r="I75">
-        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3106,20 +3112,20 @@
       <c r="D76" t="s">
         <v>0</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="2">
         <v>339.59305943761598</v>
       </c>
       <c r="F76">
+        <v>313</v>
+      </c>
+      <c r="G76" s="2">
         <v>1969.14260059649</v>
       </c>
-      <c r="G76">
+      <c r="H76" s="2">
         <v>2390.52002056844</v>
       </c>
-      <c r="H76">
+      <c r="I76" s="2">
         <v>79.923943963675399</v>
-      </c>
-      <c r="I76">
-        <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3135,20 +3141,20 @@
       <c r="D77" t="s">
         <v>0</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="2">
         <v>302.83407961466298</v>
       </c>
       <c r="F77">
+        <v>281</v>
+      </c>
+      <c r="G77" s="2">
         <v>828.89444659660899</v>
       </c>
-      <c r="G77">
+      <c r="H77" s="2">
         <v>3987.5056457748001</v>
       </c>
-      <c r="H77">
+      <c r="I77" s="2">
         <v>76.156922223373201</v>
-      </c>
-      <c r="I77">
-        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3164,20 +3170,20 @@
       <c r="D78" t="s">
         <v>0</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="2">
         <v>384.74292561472498</v>
       </c>
       <c r="F78">
+        <v>277</v>
+      </c>
+      <c r="G78" s="2">
         <v>598.99724918568995</v>
       </c>
-      <c r="G78">
+      <c r="H78" s="2">
         <v>4606.5553705326402</v>
       </c>
-      <c r="H78">
+      <c r="I78" s="2">
         <v>68.463936152207197</v>
-      </c>
-      <c r="I78">
-        <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3193,20 +3199,20 @@
       <c r="D79" t="s">
         <v>0</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="2">
         <v>267.66245443356701</v>
       </c>
       <c r="F79">
+        <v>240</v>
+      </c>
+      <c r="G79" s="2">
         <v>822.21173627486996</v>
       </c>
-      <c r="G79">
+      <c r="H79" s="2">
         <v>3666.0571391426502</v>
       </c>
-      <c r="H79">
+      <c r="I79" s="2">
         <v>71.807928808524494</v>
-      </c>
-      <c r="I79">
-        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3222,20 +3228,20 @@
       <c r="D80" t="s">
         <v>0</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="2">
         <v>250.92736286302801</v>
       </c>
       <c r="F80">
+        <v>254</v>
+      </c>
+      <c r="G80" s="2">
         <v>645.54783374057604</v>
       </c>
-      <c r="G80" t="s">
-        <v>1</v>
-      </c>
-      <c r="H80">
+      <c r="H80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I80" s="2">
         <v>81.807038482828005</v>
-      </c>
-      <c r="I80">
-        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3251,20 +3257,20 @@
       <c r="D81" t="s">
         <v>0</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="2">
         <v>271.61128970267401</v>
       </c>
       <c r="F81">
+        <v>339</v>
+      </c>
+      <c r="G81" s="2">
         <v>1779.4959845374899</v>
       </c>
-      <c r="G81">
+      <c r="H81" s="2">
         <v>3772.84237887777</v>
       </c>
-      <c r="H81">
+      <c r="I81" s="2">
         <v>78.661233891138707</v>
-      </c>
-      <c r="I81">
-        <v>339</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3280,20 +3286,20 @@
       <c r="D82" t="s">
         <v>0</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="2">
         <v>303.47382879326898</v>
       </c>
       <c r="F82">
+        <v>280</v>
+      </c>
+      <c r="G82" s="2">
         <v>1432.30536747479</v>
       </c>
-      <c r="G82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H82">
+      <c r="H82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I82" s="2">
         <v>69.602995606004001</v>
-      </c>
-      <c r="I82">
-        <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3309,20 +3315,20 @@
       <c r="D83" t="s">
         <v>0</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="2">
         <v>247.38661572294399</v>
       </c>
       <c r="F83">
+        <v>256</v>
+      </c>
+      <c r="G83" s="2">
         <v>1277.5700847450501</v>
       </c>
-      <c r="G83">
+      <c r="H83" s="2">
         <v>3354.0926549191099</v>
       </c>
-      <c r="H83">
+      <c r="I83" s="2">
         <v>81.105185115478804</v>
-      </c>
-      <c r="I83">
-        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3338,20 +3344,20 @@
       <c r="D84" t="s">
         <v>0</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="2">
         <v>274.76956925260498</v>
       </c>
       <c r="F84">
+        <v>224</v>
+      </c>
+      <c r="G84" s="2">
         <v>773.61039317527604</v>
       </c>
-      <c r="G84">
+      <c r="H84" s="2">
         <v>3523.32427661474</v>
       </c>
-      <c r="H84">
+      <c r="I84" s="2">
         <v>75.942711128401797</v>
-      </c>
-      <c r="I84">
-        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3367,20 +3373,20 @@
       <c r="D85" t="s">
         <v>0</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="2">
         <v>249.870763089306</v>
       </c>
       <c r="F85">
+        <v>217</v>
+      </c>
+      <c r="G85" s="2">
         <v>487.47465158508101</v>
       </c>
-      <c r="G85">
+      <c r="H85" s="2">
         <v>4256.6335854613799</v>
       </c>
-      <c r="H85">
+      <c r="I85" s="2">
         <v>65.234503529211594</v>
-      </c>
-      <c r="I85">
-        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3396,20 +3402,20 @@
       <c r="D86" t="s">
         <v>0</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F86">
+        <v>224</v>
+      </c>
+      <c r="G86" s="2">
         <v>963.94803863356196</v>
       </c>
-      <c r="G86">
+      <c r="H86" s="2">
         <v>3616.2758442211398</v>
       </c>
-      <c r="H86">
+      <c r="I86" s="2">
         <v>58.1738200969099</v>
-      </c>
-      <c r="I86">
-        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3425,20 +3431,20 @@
       <c r="D87" t="s">
         <v>0</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="2">
         <v>324.08312763310198</v>
       </c>
       <c r="F87">
+        <v>325</v>
+      </c>
+      <c r="G87" s="2">
         <v>524.94745208622999</v>
       </c>
-      <c r="G87">
+      <c r="H87" s="2">
         <v>4382.9508880933399</v>
       </c>
-      <c r="H87">
+      <c r="I87" s="2">
         <v>74.079919495700693</v>
-      </c>
-      <c r="I87">
-        <v>325</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3454,20 +3460,20 @@
       <c r="D88" t="s">
         <v>0</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="2">
         <v>345.05270985016301</v>
       </c>
       <c r="F88">
+        <v>354</v>
+      </c>
+      <c r="G88" s="2">
         <v>1020.19353183983</v>
       </c>
-      <c r="G88">
+      <c r="H88" s="2">
         <v>2735.06386899773</v>
       </c>
-      <c r="H88">
+      <c r="I88" s="2">
         <v>76.642566128982693</v>
-      </c>
-      <c r="I88">
-        <v>354</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3483,20 +3489,20 @@
       <c r="D89" t="s">
         <v>0</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="2">
         <v>241.791223886506</v>
       </c>
       <c r="F89">
+        <v>231</v>
+      </c>
+      <c r="G89" s="2">
         <v>3584.89792400541</v>
       </c>
-      <c r="G89" t="s">
-        <v>1</v>
-      </c>
-      <c r="H89">
+      <c r="H89" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I89" s="2">
         <v>73.613340792215496</v>
-      </c>
-      <c r="I89">
-        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3512,20 +3518,20 @@
       <c r="D90" t="s">
         <v>0</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="2">
         <v>331.70156481789098</v>
       </c>
       <c r="F90">
+        <v>332</v>
+      </c>
+      <c r="G90" s="2">
         <v>1877.46219078288</v>
       </c>
-      <c r="G90">
+      <c r="H90" s="2">
         <v>4005.8668253871701</v>
       </c>
-      <c r="H90">
+      <c r="I90" s="2">
         <v>76.638187485558603</v>
-      </c>
-      <c r="I90">
-        <v>332</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3541,20 +3547,20 @@
       <c r="D91" t="s">
         <v>0</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="2">
         <v>371.04384721887402</v>
       </c>
       <c r="F91">
+        <v>354</v>
+      </c>
+      <c r="G91" s="2">
         <v>3225.6983995447699</v>
       </c>
-      <c r="G91" t="s">
-        <v>1</v>
-      </c>
-      <c r="H91">
+      <c r="H91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I91" s="2">
         <v>77.398793077548504</v>
-      </c>
-      <c r="I91">
-        <v>354</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3570,20 +3576,20 @@
       <c r="D92" t="s">
         <v>0</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="2">
         <v>228.90172769638701</v>
       </c>
       <c r="F92">
+        <v>251</v>
+      </c>
+      <c r="G92" s="2">
         <v>860.82982962640801</v>
       </c>
-      <c r="G92" t="s">
-        <v>1</v>
-      </c>
-      <c r="H92">
+      <c r="H92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I92" s="2">
         <v>81.394533210955302</v>
-      </c>
-      <c r="I92">
-        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3599,20 +3605,20 @@
       <c r="D93" t="s">
         <v>0</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="2">
         <v>327.90096071719501</v>
       </c>
       <c r="F93">
+        <v>344</v>
+      </c>
+      <c r="G93" s="2">
         <v>1232.8257030837799</v>
       </c>
-      <c r="G93" t="s">
-        <v>1</v>
-      </c>
-      <c r="H93">
+      <c r="H93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I93" s="2">
         <v>80.219193091240797</v>
-      </c>
-      <c r="I93">
-        <v>344</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3628,20 +3634,20 @@
       <c r="D94" t="s">
         <v>0</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="2">
         <v>313.71271292088898</v>
       </c>
       <c r="F94">
+        <v>311</v>
+      </c>
+      <c r="G94" s="2">
         <v>1436.85179216149</v>
       </c>
-      <c r="G94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H94">
+      <c r="H94" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I94" s="2">
         <v>81.637496189418499</v>
-      </c>
-      <c r="I94">
-        <v>311</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3657,20 +3663,20 @@
       <c r="D95" t="s">
         <v>0</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="2">
         <v>317.63130026965399</v>
       </c>
       <c r="F95">
+        <v>304</v>
+      </c>
+      <c r="G95" s="2">
         <v>903.26787860348998</v>
       </c>
-      <c r="G95" t="s">
-        <v>1</v>
-      </c>
-      <c r="H95">
+      <c r="H95" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I95" s="2">
         <v>78.092064040071904</v>
-      </c>
-      <c r="I95">
-        <v>304</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3686,20 +3692,20 @@
       <c r="D96" t="s">
         <v>0</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="2">
         <v>248.14604900309001</v>
       </c>
       <c r="F96">
+        <v>255</v>
+      </c>
+      <c r="G96" s="2">
         <v>3716.5852081896401</v>
       </c>
-      <c r="G96" t="s">
-        <v>1</v>
-      </c>
-      <c r="H96">
+      <c r="H96" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I96" s="2">
         <v>76.057080686252206</v>
-      </c>
-      <c r="I96">
-        <v>255</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3715,20 +3721,20 @@
       <c r="D97" t="s">
         <v>0</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="2">
         <v>259.89965734996201</v>
       </c>
       <c r="F97">
+        <v>242</v>
+      </c>
+      <c r="G97" s="2">
         <v>1638.9848481272199</v>
       </c>
-      <c r="G97">
+      <c r="H97" s="2">
         <v>4581.95580817272</v>
       </c>
-      <c r="H97">
+      <c r="I97" s="2">
         <v>80.585345781895398</v>
-      </c>
-      <c r="I97">
-        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3744,20 +3750,20 @@
       <c r="D98" t="s">
         <v>0</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F98">
+        <v>290</v>
+      </c>
+      <c r="G98" s="2">
         <v>874.41575071215698</v>
       </c>
-      <c r="G98">
+      <c r="H98" s="2">
         <v>2871.1665857061898</v>
       </c>
-      <c r="H98">
+      <c r="I98" s="2">
         <v>79.778019476950107</v>
-      </c>
-      <c r="I98">
-        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3773,20 +3779,20 @@
       <c r="D99" t="s">
         <v>0</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F99">
+        <v>382</v>
+      </c>
+      <c r="G99" s="2">
         <v>1184.6258389334901</v>
       </c>
-      <c r="G99">
+      <c r="H99" s="2">
         <v>4790.2155246290504</v>
       </c>
-      <c r="H99">
+      <c r="I99" s="2">
         <v>81.995830450502396</v>
-      </c>
-      <c r="I99">
-        <v>382</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3802,20 +3808,20 @@
       <c r="D100" t="s">
         <v>0</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="2">
         <v>348.25987946715497</v>
       </c>
       <c r="F100">
+        <v>285</v>
+      </c>
+      <c r="G100" s="2">
         <v>705.23060869332801</v>
       </c>
-      <c r="G100">
+      <c r="H100" s="2">
         <v>2492.1444398767899</v>
       </c>
-      <c r="H100">
+      <c r="I100" s="2">
         <v>74.679803060790107</v>
-      </c>
-      <c r="I100">
-        <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3831,20 +3837,20 @@
       <c r="D101" t="s">
         <v>0</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="2">
         <v>235.09877322456001</v>
       </c>
       <c r="F101">
+        <v>236</v>
+      </c>
+      <c r="G101" s="2">
         <v>522.26308316764801</v>
       </c>
-      <c r="G101">
+      <c r="H101" s="2">
         <v>3332.23449454711</v>
       </c>
-      <c r="H101">
+      <c r="I101" s="2">
         <v>80.407913630628997</v>
-      </c>
-      <c r="I101">
-        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3860,20 +3866,20 @@
       <c r="D102" t="s">
         <v>0</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F102">
+        <v>270</v>
+      </c>
+      <c r="G102" s="2">
         <v>1995.83007045303</v>
       </c>
-      <c r="G102" t="s">
-        <v>1</v>
-      </c>
-      <c r="H102">
+      <c r="H102" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I102" s="2">
         <v>80.186948328061206</v>
-      </c>
-      <c r="I102">
-        <v>270</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3889,20 +3895,20 @@
       <c r="D103" t="s">
         <v>0</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="2">
         <v>266.64553467993198</v>
       </c>
       <c r="F103">
+        <v>272</v>
+      </c>
+      <c r="G103" s="2">
         <v>1099.7602761221401</v>
       </c>
-      <c r="G103">
+      <c r="H103" s="2">
         <v>3389.4817586859099</v>
       </c>
-      <c r="H103">
+      <c r="I103" s="2">
         <v>84.534212097244705</v>
-      </c>
-      <c r="I103">
-        <v>272</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3918,20 +3924,20 @@
       <c r="D104" t="s">
         <v>0</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="2">
         <v>323.47522546412603</v>
       </c>
       <c r="F104">
+        <v>299</v>
+      </c>
+      <c r="G104" s="2">
         <v>1306.4409158312901</v>
       </c>
-      <c r="G104">
+      <c r="H104" s="2">
         <v>4071.20276248342</v>
       </c>
-      <c r="H104">
+      <c r="I104" s="2">
         <v>66.777342843198696</v>
-      </c>
-      <c r="I104">
-        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3947,20 +3953,20 @@
       <c r="D105" t="s">
         <v>0</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F105">
+        <v>351</v>
+      </c>
+      <c r="G105" s="2">
         <v>3078.1106934275199</v>
       </c>
-      <c r="G105" t="s">
-        <v>1</v>
-      </c>
-      <c r="H105">
+      <c r="H105" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I105" s="2">
         <v>57.4363679168288</v>
-      </c>
-      <c r="I105">
-        <v>351</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3976,20 +3982,20 @@
       <c r="D106" t="s">
         <v>0</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="2">
         <v>315.29337457869701</v>
       </c>
       <c r="F106">
+        <v>263</v>
+      </c>
+      <c r="G106" s="2">
         <v>541.72015798424695</v>
       </c>
-      <c r="G106">
+      <c r="H106" s="2">
         <v>3599.6295894697</v>
       </c>
-      <c r="H106">
+      <c r="I106" s="2">
         <v>78.234473311013204</v>
-      </c>
-      <c r="I106">
-        <v>263</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4005,20 +4011,20 @@
       <c r="D107" t="s">
         <v>0</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="2">
         <v>146.27242609506399</v>
       </c>
       <c r="F107">
+        <v>261</v>
+      </c>
+      <c r="G107" s="2">
         <v>757.52913636649998</v>
       </c>
-      <c r="G107" t="s">
-        <v>1</v>
-      </c>
-      <c r="H107">
+      <c r="H107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I107" s="2">
         <v>74.799093100071502</v>
-      </c>
-      <c r="I107">
-        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4034,20 +4040,20 @@
       <c r="D108" t="s">
         <v>0</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="2">
         <v>214.441230787584</v>
       </c>
       <c r="F108">
+        <v>273</v>
+      </c>
+      <c r="G108" s="2">
         <v>1380.2039219513499</v>
       </c>
-      <c r="G108" t="s">
-        <v>1</v>
-      </c>
-      <c r="H108">
+      <c r="H108" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I108" s="2">
         <v>80.136719833636505</v>
-      </c>
-      <c r="I108">
-        <v>273</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4063,20 +4069,20 @@
       <c r="D109" t="s">
         <v>0</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="2">
         <v>250.48054795182199</v>
       </c>
       <c r="F109">
+        <v>261</v>
+      </c>
+      <c r="G109" s="2">
         <v>842.94148836596196</v>
       </c>
-      <c r="G109">
+      <c r="H109" s="2">
         <v>3808.3474358982799</v>
       </c>
-      <c r="H109">
+      <c r="I109" s="2">
         <v>71.333307290019206</v>
-      </c>
-      <c r="I109">
-        <v>261</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4092,20 +4098,20 @@
       <c r="D110" t="s">
         <v>0</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="2">
         <v>205.380329906605</v>
       </c>
       <c r="F110">
+        <v>238</v>
+      </c>
+      <c r="G110" s="2">
         <v>950.35193877174902</v>
       </c>
-      <c r="G110">
+      <c r="H110" s="2">
         <v>1310.46254180706</v>
       </c>
-      <c r="H110">
+      <c r="I110" s="2">
         <v>80.415059451550405</v>
-      </c>
-      <c r="I110">
-        <v>238</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4121,20 +4127,20 @@
       <c r="D111" t="s">
         <v>0</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F111">
+        <v>330</v>
+      </c>
+      <c r="G111" s="2">
         <v>1599.71531946701</v>
       </c>
-      <c r="G111">
+      <c r="H111" s="2">
         <v>4276.9230241405303</v>
       </c>
-      <c r="H111">
+      <c r="I111" s="2">
         <v>41.351715239027797</v>
-      </c>
-      <c r="I111">
-        <v>330</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4150,20 +4156,20 @@
       <c r="D112" t="s">
         <v>0</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="2">
         <v>295.74864306361297</v>
       </c>
       <c r="F112">
+        <v>298</v>
+      </c>
+      <c r="G112" s="2">
         <v>957.45110436156597</v>
       </c>
-      <c r="G112">
+      <c r="H112" s="2">
         <v>4755.7081712860299</v>
       </c>
-      <c r="H112">
+      <c r="I112" s="2">
         <v>78.685491765998293</v>
-      </c>
-      <c r="I112">
-        <v>298</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4179,20 +4185,20 @@
       <c r="D113" t="s">
         <v>0</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="2">
         <v>332.71286437902103</v>
       </c>
       <c r="F113">
+        <v>349</v>
+      </c>
+      <c r="G113" s="2">
         <v>696.475970107997</v>
       </c>
-      <c r="G113" t="s">
-        <v>1</v>
-      </c>
-      <c r="H113">
+      <c r="H113" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I113" s="2">
         <v>60.7304592186115</v>
-      </c>
-      <c r="I113">
-        <v>349</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4208,20 +4214,20 @@
       <c r="D114" t="s">
         <v>0</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="2">
         <v>365.59581235101302</v>
       </c>
       <c r="F114">
+        <v>367</v>
+      </c>
+      <c r="G114" s="2">
         <v>725.156351912525</v>
       </c>
-      <c r="G114">
+      <c r="H114" s="2">
         <v>3617.3433141293799</v>
       </c>
-      <c r="H114">
+      <c r="I114" s="2">
         <v>72.742061065322403</v>
-      </c>
-      <c r="I114">
-        <v>367</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4237,20 +4243,20 @@
       <c r="D115" t="s">
         <v>0</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="2">
         <v>368.12046696368799</v>
       </c>
       <c r="F115">
+        <v>258</v>
+      </c>
+      <c r="G115" s="2">
         <v>1128.3234423235399</v>
       </c>
-      <c r="G115" t="s">
-        <v>1</v>
-      </c>
-      <c r="H115">
+      <c r="H115" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I115" s="2">
         <v>78.504660037050002</v>
-      </c>
-      <c r="I115">
-        <v>258</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4266,20 +4272,20 @@
       <c r="D116" t="s">
         <v>0</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="2">
         <v>207.17413215937401</v>
       </c>
       <c r="F116">
+        <v>268</v>
+      </c>
+      <c r="G116" s="2">
         <v>537.31858650908896</v>
       </c>
-      <c r="G116" t="s">
-        <v>1</v>
-      </c>
-      <c r="H116">
+      <c r="H116" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I116" s="2">
         <v>81.794391122893103</v>
-      </c>
-      <c r="I116">
-        <v>268</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4295,20 +4301,20 @@
       <c r="D117" t="s">
         <v>0</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="2">
         <v>264.55824166853603</v>
       </c>
       <c r="F117">
+        <v>263</v>
+      </c>
+      <c r="G117" s="2">
         <v>1436.9948384368099</v>
       </c>
-      <c r="G117" t="s">
-        <v>1</v>
-      </c>
-      <c r="H117">
+      <c r="H117" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I117" s="2">
         <v>72.356760386625794</v>
-      </c>
-      <c r="I117">
-        <v>263</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4324,20 +4330,20 @@
       <c r="D118" t="s">
         <v>0</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="2">
         <v>217.343403581053</v>
       </c>
       <c r="F118">
+        <v>273</v>
+      </c>
+      <c r="G118" s="2">
         <v>840.63488437673095</v>
       </c>
-      <c r="G118">
+      <c r="H118" s="2">
         <v>4827.0940406652198</v>
       </c>
-      <c r="H118">
+      <c r="I118" s="2">
         <v>79.651682583174093</v>
-      </c>
-      <c r="I118">
-        <v>273</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4353,20 +4359,20 @@
       <c r="D119" t="s">
         <v>2</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="2">
         <v>316.483005008178</v>
       </c>
       <c r="F119">
+        <v>267</v>
+      </c>
+      <c r="G119" s="2">
         <v>3004.4321271611202</v>
       </c>
-      <c r="G119" t="s">
-        <v>1</v>
-      </c>
-      <c r="H119">
+      <c r="H119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I119" s="2">
         <v>69.388917084547202</v>
-      </c>
-      <c r="I119">
-        <v>267</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4382,20 +4388,20 @@
       <c r="D120" t="s">
         <v>0</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="2">
         <v>78.473469241161794</v>
       </c>
       <c r="F120">
+        <v>84</v>
+      </c>
+      <c r="G120" s="2">
         <v>1631.4578828697199</v>
       </c>
-      <c r="G120">
+      <c r="H120" s="2">
         <v>2896.62059350359</v>
       </c>
-      <c r="H120">
+      <c r="I120" s="2">
         <v>79.237475706736006</v>
-      </c>
-      <c r="I120">
-        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -4411,20 +4417,20 @@
       <c r="D121" t="s">
         <v>0</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="2">
         <v>301.81435953307101</v>
       </c>
       <c r="F121">
+        <v>314</v>
+      </c>
+      <c r="G121" s="2">
         <v>1053.2940826259201</v>
       </c>
-      <c r="G121">
+      <c r="H121" s="2">
         <v>4431.9115027555699</v>
       </c>
-      <c r="H121">
+      <c r="I121" s="2">
         <v>62.316870066566501</v>
-      </c>
-      <c r="I121">
-        <v>314</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4440,20 +4446,20 @@
       <c r="D122" t="s">
         <v>0</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="2">
         <v>285.091207310014</v>
       </c>
       <c r="F122">
+        <v>301</v>
+      </c>
+      <c r="G122" s="2">
         <v>1800.31734780891</v>
       </c>
-      <c r="G122">
+      <c r="H122" s="2">
         <v>4818.9599335420598</v>
       </c>
-      <c r="H122">
+      <c r="I122" s="2">
         <v>82.646251519100403</v>
-      </c>
-      <c r="I122">
-        <v>301</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4469,20 +4475,20 @@
       <c r="D123" t="s">
         <v>0</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F123">
+        <v>271</v>
+      </c>
+      <c r="G123" s="2">
         <v>1835.9039321087801</v>
       </c>
-      <c r="G123" t="s">
-        <v>1</v>
-      </c>
-      <c r="H123">
+      <c r="H123" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I123" s="2">
         <v>50.8044839357336</v>
-      </c>
-      <c r="I123">
-        <v>271</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4498,20 +4504,20 @@
       <c r="D124" t="s">
         <v>2</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="2">
         <v>244.849180302722</v>
       </c>
       <c r="F124">
+        <v>255</v>
+      </c>
+      <c r="G124" s="2">
         <v>722.57515437737402</v>
       </c>
-      <c r="G124" t="s">
-        <v>1</v>
-      </c>
-      <c r="H124">
+      <c r="H124" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I124" s="2">
         <v>71.821569981181298</v>
-      </c>
-      <c r="I124">
-        <v>255</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4527,20 +4533,20 @@
       <c r="D125" t="s">
         <v>0</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="2">
         <v>255.93702904664099</v>
       </c>
       <c r="F125">
+        <v>258</v>
+      </c>
+      <c r="G125" s="2">
         <v>651.62805093874601</v>
       </c>
-      <c r="G125">
+      <c r="H125" s="2">
         <v>4966.7609890936701</v>
       </c>
-      <c r="H125">
+      <c r="I125" s="2">
         <v>80.534826836401507</v>
-      </c>
-      <c r="I125">
-        <v>258</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4556,20 +4562,20 @@
       <c r="D126" t="s">
         <v>0</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="2">
         <v>341.35000983079101</v>
       </c>
       <c r="F126">
+        <v>340</v>
+      </c>
+      <c r="G126" s="2">
         <v>699.54085262450997</v>
       </c>
-      <c r="G126">
+      <c r="H126" s="2">
         <v>3281.6067403501102</v>
       </c>
-      <c r="H126">
+      <c r="I126" s="2">
         <v>81.9316563701869</v>
-      </c>
-      <c r="I126">
-        <v>340</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4585,20 +4591,20 @@
       <c r="D127" t="s">
         <v>0</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F127">
+        <v>340</v>
+      </c>
+      <c r="G127" s="2">
         <v>1164.7252504272999</v>
       </c>
-      <c r="G127" t="s">
-        <v>1</v>
-      </c>
-      <c r="H127">
+      <c r="H127" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I127" s="2">
         <v>51.955602394887102</v>
-      </c>
-      <c r="I127">
-        <v>340</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4614,20 +4620,20 @@
       <c r="D128" t="s">
         <v>0</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F128">
+        <v>290</v>
+      </c>
+      <c r="G128" s="2">
         <v>1387.0664418061499</v>
       </c>
-      <c r="G128">
+      <c r="H128" s="2">
         <v>4105.2418626711396</v>
       </c>
-      <c r="H128">
+      <c r="I128" s="2">
         <v>55.984453856378899</v>
-      </c>
-      <c r="I128">
-        <v>290</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -4643,20 +4649,20 @@
       <c r="D129" t="s">
         <v>0</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="2">
         <v>340.170204600516</v>
       </c>
       <c r="F129">
+        <v>336</v>
+      </c>
+      <c r="G129" s="2">
         <v>1233.6833397955199</v>
       </c>
-      <c r="G129" t="s">
-        <v>1</v>
-      </c>
-      <c r="H129">
+      <c r="H129" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I129" s="2">
         <v>81.265196312933895</v>
-      </c>
-      <c r="I129">
-        <v>336</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -4672,20 +4678,20 @@
       <c r="D130" t="s">
         <v>2</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="2">
         <v>222.86822664963901</v>
       </c>
       <c r="F130">
+        <v>224</v>
+      </c>
+      <c r="G130" s="2">
         <v>1062.5261479410101</v>
       </c>
-      <c r="G130">
+      <c r="H130" s="2">
         <v>4005.4687965510202</v>
       </c>
-      <c r="H130">
+      <c r="I130" s="2">
         <v>66.068073134725296</v>
-      </c>
-      <c r="I130">
-        <v>224</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -4701,20 +4707,20 @@
       <c r="D131" t="s">
         <v>0</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="2">
         <v>332.80904369522602</v>
       </c>
       <c r="F131">
+        <v>297</v>
+      </c>
+      <c r="G131" s="2">
         <v>2017.29207951733</v>
       </c>
-      <c r="G131">
+      <c r="H131" s="2">
         <v>3312.1414994132701</v>
       </c>
-      <c r="H131">
+      <c r="I131" s="2">
         <v>79.580628613236399</v>
-      </c>
-      <c r="I131">
-        <v>297</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -4730,20 +4736,20 @@
       <c r="D132" t="s">
         <v>0</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="2">
         <v>349.99822365706098</v>
       </c>
       <c r="F132">
+        <v>297</v>
+      </c>
+      <c r="G132" s="2">
         <v>515.04112131617603</v>
       </c>
-      <c r="G132">
+      <c r="H132" s="2">
         <v>4720.3566623147799</v>
       </c>
-      <c r="H132">
+      <c r="I132" s="2">
         <v>60.482108698542397</v>
-      </c>
-      <c r="I132">
-        <v>297</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -4759,20 +4765,20 @@
       <c r="D133" t="s">
         <v>0</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="2">
         <v>292.100814534878</v>
       </c>
       <c r="F133">
+        <v>295</v>
+      </c>
+      <c r="G133" s="2">
         <v>781.96772128561599</v>
       </c>
-      <c r="G133" t="s">
-        <v>1</v>
-      </c>
-      <c r="H133">
+      <c r="H133" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I133" s="2">
         <v>62.308209213180099</v>
-      </c>
-      <c r="I133">
-        <v>295</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -4788,20 +4794,20 @@
       <c r="D134" t="s">
         <v>0</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="2">
         <v>343.01455880569102</v>
       </c>
       <c r="F134">
+        <v>339</v>
+      </c>
+      <c r="G134" s="2">
         <v>702.01637642616697</v>
       </c>
-      <c r="G134" t="s">
-        <v>1</v>
-      </c>
-      <c r="H134">
+      <c r="H134" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I134" s="2">
         <v>82.850983271408396</v>
-      </c>
-      <c r="I134">
-        <v>339</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -4817,20 +4823,20 @@
       <c r="D135" t="s">
         <v>0</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="2">
         <v>216.22994389627499</v>
       </c>
       <c r="F135">
+        <v>308</v>
+      </c>
+      <c r="G135" s="2">
         <v>2552.30391730157</v>
       </c>
-      <c r="G135">
+      <c r="H135" s="2">
         <v>2741.9370075173001</v>
       </c>
-      <c r="H135">
+      <c r="I135" s="2">
         <v>81.943328882907693</v>
-      </c>
-      <c r="I135">
-        <v>308</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -4846,20 +4852,20 @@
       <c r="D136" t="s">
         <v>0</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F136">
+        <v>215</v>
+      </c>
+      <c r="G136" s="2">
         <v>2754.4830054181398</v>
       </c>
-      <c r="G136">
+      <c r="H136" s="2">
         <v>4479.4889010250899</v>
       </c>
-      <c r="H136">
+      <c r="I136" s="2">
         <v>69.503304192325004</v>
-      </c>
-      <c r="I136">
-        <v>215</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -4875,20 +4881,20 @@
       <c r="D137" t="s">
         <v>0</v>
       </c>
-      <c r="E137" t="s">
-        <v>1</v>
-      </c>
-      <c r="F137">
+      <c r="E137" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1</v>
+      </c>
+      <c r="G137" s="2">
         <v>1243.2688188663999</v>
       </c>
-      <c r="G137">
+      <c r="H137" s="2">
         <v>4704.7056732954597</v>
       </c>
-      <c r="H137">
+      <c r="I137" s="2">
         <v>70.132689771195302</v>
-      </c>
-      <c r="I137" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -4904,20 +4910,20 @@
       <c r="D138" t="s">
         <v>0</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="2">
         <v>373.70638264106901</v>
       </c>
       <c r="F138">
+        <v>322</v>
+      </c>
+      <c r="G138" s="2">
         <v>3841.1269568509201</v>
       </c>
-      <c r="G138" t="s">
-        <v>1</v>
-      </c>
-      <c r="H138">
+      <c r="H138" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I138" s="2">
         <v>60.337530689237397</v>
-      </c>
-      <c r="I138">
-        <v>322</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -4933,20 +4939,20 @@
       <c r="D139" t="s">
         <v>0</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="2">
         <v>374.07953680350801</v>
       </c>
       <c r="F139">
+        <v>371</v>
+      </c>
+      <c r="G139" s="2">
         <v>880.720809903381</v>
       </c>
-      <c r="G139">
+      <c r="H139" s="2">
         <v>4048.6937981473602</v>
       </c>
-      <c r="H139">
+      <c r="I139" s="2">
         <v>77.278521956850398</v>
-      </c>
-      <c r="I139">
-        <v>371</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -4962,20 +4968,20 @@
       <c r="D140" t="s">
         <v>0</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="2">
         <v>264.60858702367</v>
       </c>
       <c r="F140">
+        <v>262</v>
+      </c>
+      <c r="G140" s="2">
         <v>1883.2211370877999</v>
       </c>
-      <c r="G140" t="s">
-        <v>1</v>
-      </c>
-      <c r="H140">
+      <c r="H140" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I140" s="2">
         <v>73.948743556964601</v>
-      </c>
-      <c r="I140">
-        <v>262</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -4991,20 +4997,20 @@
       <c r="D141" t="s">
         <v>0</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="2">
         <v>242.878374459632</v>
       </c>
       <c r="F141">
+        <v>263</v>
+      </c>
+      <c r="G141" s="2">
         <v>1791.2610124022499</v>
       </c>
-      <c r="G141" t="s">
-        <v>1</v>
-      </c>
-      <c r="H141">
+      <c r="H141" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I141" s="2">
         <v>74.882886885526005</v>
-      </c>
-      <c r="I141">
-        <v>263</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -5020,20 +5026,20 @@
       <c r="D142" t="s">
         <v>2</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F142">
+        <v>287</v>
+      </c>
+      <c r="G142" s="2">
         <v>160.636995948015</v>
       </c>
-      <c r="G142">
+      <c r="H142" s="2">
         <v>3800.5911357360301</v>
       </c>
-      <c r="H142">
+      <c r="I142" s="2">
         <v>77.5651350827779</v>
-      </c>
-      <c r="I142">
-        <v>287</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -5049,20 +5055,20 @@
       <c r="D143" t="s">
         <v>0</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="2">
         <v>191.689094933505</v>
       </c>
       <c r="F143">
+        <v>213</v>
+      </c>
+      <c r="G143" s="2">
         <v>456.50298698799401</v>
       </c>
-      <c r="G143">
+      <c r="H143" s="2">
         <v>3710.85627519133</v>
       </c>
-      <c r="H143">
+      <c r="I143" s="2">
         <v>82.568026338541003</v>
-      </c>
-      <c r="I143">
-        <v>213</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -5078,20 +5084,20 @@
       <c r="D144" t="s">
         <v>0</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F144">
+        <v>183</v>
+      </c>
+      <c r="G144" s="2">
         <v>3210.7302242194301</v>
       </c>
-      <c r="G144">
+      <c r="H144" s="2">
         <v>3367.9402112298999</v>
       </c>
-      <c r="H144">
+      <c r="I144" s="2">
         <v>49.531782382312102</v>
-      </c>
-      <c r="I144">
-        <v>183</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -5107,20 +5113,20 @@
       <c r="D145" t="s">
         <v>0</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="2">
         <v>311.34025293962998</v>
       </c>
       <c r="F145">
+        <v>305</v>
+      </c>
+      <c r="G145" s="2">
         <v>3039.30261962637</v>
       </c>
-      <c r="G145" t="s">
-        <v>1</v>
-      </c>
-      <c r="H145">
+      <c r="H145" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I145" s="2">
         <v>76.509071562528305</v>
-      </c>
-      <c r="I145">
-        <v>305</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -5136,20 +5142,20 @@
       <c r="D146" t="s">
         <v>0</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="2">
         <v>300.52489235914697</v>
       </c>
       <c r="F146">
+        <v>296</v>
+      </c>
+      <c r="G146" s="2">
         <v>1946.9597828789699</v>
       </c>
-      <c r="G146" t="s">
-        <v>1</v>
-      </c>
-      <c r="H146">
+      <c r="H146" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I146" s="2">
         <v>67.124584194197098</v>
-      </c>
-      <c r="I146">
-        <v>296</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5165,20 +5171,20 @@
       <c r="D147" t="s">
         <v>0</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F147">
+        <v>215</v>
+      </c>
+      <c r="G147" s="2">
         <v>1793.88164521409</v>
       </c>
-      <c r="G147">
+      <c r="H147" s="2">
         <v>3886.8498328553401</v>
       </c>
-      <c r="H147">
+      <c r="I147" s="2">
         <v>36.8056998306281</v>
-      </c>
-      <c r="I147">
-        <v>215</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5194,20 +5200,20 @@
       <c r="D148" t="s">
         <v>0</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F148">
+        <v>228</v>
+      </c>
+      <c r="G148" s="2">
         <v>2114.8496525698101</v>
       </c>
-      <c r="G148" t="s">
-        <v>1</v>
-      </c>
-      <c r="H148">
+      <c r="H148" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I148" s="2">
         <v>44.287785006961002</v>
-      </c>
-      <c r="I148">
-        <v>228</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -5223,20 +5229,20 @@
       <c r="D149" t="s">
         <v>0</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="2">
         <v>220.400942487603</v>
       </c>
       <c r="F149">
+        <v>213</v>
+      </c>
+      <c r="G149" s="2">
         <v>1479.1505970810099</v>
       </c>
-      <c r="G149" t="s">
-        <v>1</v>
-      </c>
-      <c r="H149">
+      <c r="H149" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I149" s="2">
         <v>78.759089839749294</v>
-      </c>
-      <c r="I149">
-        <v>213</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -5252,20 +5258,20 @@
       <c r="D150" t="s">
         <v>0</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="2">
         <v>218.372799953705</v>
       </c>
       <c r="F150">
+        <v>214</v>
+      </c>
+      <c r="G150" s="2">
         <v>451.73252612532502</v>
       </c>
-      <c r="G150">
+      <c r="H150" s="2">
         <v>3448.95220516166</v>
       </c>
-      <c r="H150">
+      <c r="I150" s="2">
         <v>82.167590880969101</v>
-      </c>
-      <c r="I150">
-        <v>214</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -5281,20 +5287,20 @@
       <c r="D151" t="s">
         <v>0</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="2">
         <v>373.79928607723201</v>
       </c>
       <c r="F151">
+        <v>326</v>
+      </c>
+      <c r="G151" s="2">
         <v>2176.73532754404</v>
       </c>
-      <c r="G151" t="s">
-        <v>1</v>
-      </c>
-      <c r="H151">
+      <c r="H151" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I151" s="2">
         <v>85.163803691873696</v>
-      </c>
-      <c r="I151">
-        <v>326</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -5310,20 +5316,20 @@
       <c r="D152" t="s">
         <v>0</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="2">
         <v>338.62069391343499</v>
       </c>
       <c r="F152">
+        <v>344</v>
+      </c>
+      <c r="G152" s="2">
         <v>1703.1964241250701</v>
       </c>
-      <c r="G152">
+      <c r="H152" s="2">
         <v>4219.7819713915396</v>
       </c>
-      <c r="H152">
+      <c r="I152" s="2">
         <v>72.562888622222999</v>
-      </c>
-      <c r="I152">
-        <v>344</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -5339,20 +5345,20 @@
       <c r="D153" t="s">
         <v>0</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="2">
         <v>314.12048749272901</v>
       </c>
       <c r="F153">
+        <v>291</v>
+      </c>
+      <c r="G153" s="2">
         <v>2331.84969216544</v>
       </c>
-      <c r="G153" t="s">
-        <v>1</v>
-      </c>
-      <c r="H153">
+      <c r="H153" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I153" s="2">
         <v>55.292091937352403</v>
-      </c>
-      <c r="I153">
-        <v>291</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -5368,20 +5374,20 @@
       <c r="D154" t="s">
         <v>0</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="2">
         <v>262.22843093004201</v>
       </c>
       <c r="F154">
+        <v>266</v>
+      </c>
+      <c r="G154" s="2">
         <v>715.71798010545899</v>
       </c>
-      <c r="G154">
+      <c r="H154" s="2">
         <v>5073.0421061725701</v>
       </c>
-      <c r="H154">
+      <c r="I154" s="2">
         <v>72.855836108106601</v>
-      </c>
-      <c r="I154">
-        <v>266</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -5397,20 +5403,20 @@
       <c r="D155" t="s">
         <v>0</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="2">
         <v>286.86476313241599</v>
       </c>
       <c r="F155">
+        <v>292</v>
+      </c>
+      <c r="G155" s="2">
         <v>944.21951891388301</v>
       </c>
-      <c r="G155">
+      <c r="H155" s="2">
         <v>4148.1257875186702</v>
       </c>
-      <c r="H155">
+      <c r="I155" s="2">
         <v>80.186271807317596</v>
-      </c>
-      <c r="I155">
-        <v>292</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -5426,20 +5432,20 @@
       <c r="D156" t="s">
         <v>0</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="2">
         <v>340.059404522242</v>
       </c>
       <c r="F156">
+        <v>338</v>
+      </c>
+      <c r="G156" s="2">
         <v>2971.8619086550202</v>
       </c>
-      <c r="G156" t="s">
-        <v>1</v>
-      </c>
-      <c r="H156">
+      <c r="H156" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I156" s="2">
         <v>77.969501452044796</v>
-      </c>
-      <c r="I156">
-        <v>338</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -5455,20 +5461,20 @@
       <c r="D157" t="s">
         <v>0</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F157">
+        <v>312</v>
+      </c>
+      <c r="G157" s="2">
         <v>1886.0474876482599</v>
       </c>
-      <c r="G157" t="s">
-        <v>1</v>
-      </c>
-      <c r="H157">
+      <c r="H157" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I157" s="2">
         <v>61.852861427658098</v>
-      </c>
-      <c r="I157">
-        <v>312</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -5484,20 +5490,20 @@
       <c r="D158" t="s">
         <v>0</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="2">
         <v>202.45020861761799</v>
       </c>
       <c r="F158">
+        <v>205</v>
+      </c>
+      <c r="G158" s="2">
         <v>625.70380627826296</v>
       </c>
-      <c r="G158" t="s">
-        <v>1</v>
-      </c>
-      <c r="H158">
+      <c r="H158" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I158" s="2">
         <v>81.4210424283565</v>
-      </c>
-      <c r="I158">
-        <v>205</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -5513,20 +5519,20 @@
       <c r="D159" t="s">
         <v>0</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F159">
+        <v>236</v>
+      </c>
+      <c r="G159" s="2">
         <v>3246.6516330578102</v>
       </c>
-      <c r="G159" t="s">
-        <v>1</v>
-      </c>
-      <c r="H159">
+      <c r="H159" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I159" s="2">
         <v>74.954037708804904</v>
-      </c>
-      <c r="I159">
-        <v>236</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -5542,20 +5548,20 @@
       <c r="D160" t="s">
         <v>0</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="2">
         <v>338.65110499784402</v>
       </c>
       <c r="F160">
+        <v>326</v>
+      </c>
+      <c r="G160" s="2">
         <v>3506.34831294281</v>
       </c>
-      <c r="G160" t="s">
-        <v>1</v>
-      </c>
-      <c r="H160">
+      <c r="H160" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I160" s="2">
         <v>73.767489472247107</v>
-      </c>
-      <c r="I160">
-        <v>326</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -5571,20 +5577,20 @@
       <c r="D161" t="s">
         <v>0</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="2">
         <v>237.438056920451</v>
       </c>
       <c r="F161">
+        <v>224</v>
+      </c>
+      <c r="G161" s="2">
         <v>587.05762808093095</v>
       </c>
-      <c r="G161">
+      <c r="H161" s="2">
         <v>4198.5700363014703</v>
       </c>
-      <c r="H161">
+      <c r="I161" s="2">
         <v>82.540314961121197</v>
-      </c>
-      <c r="I161">
-        <v>224</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -5600,20 +5606,20 @@
       <c r="D162" t="s">
         <v>0</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="2">
         <v>303.98112203857499</v>
       </c>
       <c r="F162">
+        <v>322</v>
+      </c>
+      <c r="G162" s="2">
         <v>672.09291670568098</v>
       </c>
-      <c r="G162">
+      <c r="H162" s="2">
         <v>4477.4926885054902</v>
       </c>
-      <c r="H162">
+      <c r="I162" s="2">
         <v>74.307145692122404</v>
-      </c>
-      <c r="I162">
-        <v>322</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -5629,20 +5635,20 @@
       <c r="D163" t="s">
         <v>0</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F163">
+        <v>229</v>
+      </c>
+      <c r="G163" s="2">
         <v>1375.7914593108801</v>
       </c>
-      <c r="G163" t="s">
-        <v>1</v>
-      </c>
-      <c r="H163">
+      <c r="H163" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I163" s="2">
         <v>76.978207215043298</v>
-      </c>
-      <c r="I163">
-        <v>229</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -5658,20 +5664,20 @@
       <c r="D164" t="s">
         <v>0</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="2">
         <v>252.989048788616</v>
       </c>
       <c r="F164">
+        <v>193</v>
+      </c>
+      <c r="G164" s="2">
         <v>758.36640327963096</v>
       </c>
-      <c r="G164">
+      <c r="H164" s="2">
         <v>3826.3220729360801</v>
       </c>
-      <c r="H164">
+      <c r="I164" s="2">
         <v>75.389246191820305</v>
-      </c>
-      <c r="I164">
-        <v>193</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -5687,20 +5693,20 @@
       <c r="D165" t="s">
         <v>0</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="2">
         <v>300.68704579106702</v>
       </c>
       <c r="F165">
+        <v>288</v>
+      </c>
+      <c r="G165" s="2">
         <v>646.18686971333</v>
       </c>
-      <c r="G165">
+      <c r="H165" s="2">
         <v>3945.37059249708</v>
       </c>
-      <c r="H165">
+      <c r="I165" s="2">
         <v>81.738851849950393</v>
-      </c>
-      <c r="I165">
-        <v>288</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -5716,20 +5722,20 @@
       <c r="D166" t="s">
         <v>0</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="2">
         <v>200.81789557614101</v>
       </c>
       <c r="F166">
+        <v>253</v>
+      </c>
+      <c r="G166" s="2">
         <v>702.90851465841001</v>
       </c>
-      <c r="G166" t="s">
-        <v>1</v>
-      </c>
-      <c r="H166">
+      <c r="H166" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I166" s="2">
         <v>76.774870867164793</v>
-      </c>
-      <c r="I166">
-        <v>253</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -5745,20 +5751,20 @@
       <c r="D167" t="s">
         <v>0</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="2">
         <v>334.97963077577401</v>
       </c>
       <c r="F167">
+        <v>324</v>
+      </c>
+      <c r="G167" s="2">
         <v>661.01188617326397</v>
       </c>
-      <c r="G167">
+      <c r="H167" s="2">
         <v>4472.6729520005501</v>
       </c>
-      <c r="H167">
+      <c r="I167" s="2">
         <v>73.982787975471595</v>
-      </c>
-      <c r="I167">
-        <v>324</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -5774,20 +5780,20 @@
       <c r="D168" t="s">
         <v>0</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="2">
         <v>213.22976629900899</v>
       </c>
       <c r="F168">
+        <v>220</v>
+      </c>
+      <c r="G168" s="2">
         <v>1470.0420458578001</v>
       </c>
-      <c r="G168" t="s">
-        <v>1</v>
-      </c>
-      <c r="H168">
+      <c r="H168" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I168" s="2">
         <v>78.456705089637495</v>
-      </c>
-      <c r="I168">
-        <v>220</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -5803,20 +5809,20 @@
       <c r="D169" t="s">
         <v>0</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="2">
         <v>175.01831887538901</v>
       </c>
       <c r="F169">
+        <v>225</v>
+      </c>
+      <c r="G169" s="2">
         <v>3417.5842935324999</v>
       </c>
-      <c r="G169" t="s">
-        <v>1</v>
-      </c>
-      <c r="H169">
+      <c r="H169" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I169" s="2">
         <v>74.8293580061668</v>
-      </c>
-      <c r="I169">
-        <v>225</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -5832,20 +5838,20 @@
       <c r="D170" t="s">
         <v>0</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="2">
         <v>342.26469622949998</v>
       </c>
       <c r="F170">
+        <v>353</v>
+      </c>
+      <c r="G170" s="2">
         <v>2618.6464578002801</v>
       </c>
-      <c r="G170" t="s">
-        <v>1</v>
-      </c>
-      <c r="H170">
+      <c r="H170" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I170" s="2">
         <v>67.201869399088494</v>
-      </c>
-      <c r="I170">
-        <v>353</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -5861,20 +5867,20 @@
       <c r="D171" t="s">
         <v>0</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="2">
         <v>225.240917895639</v>
       </c>
       <c r="F171">
+        <v>235</v>
+      </c>
+      <c r="G171" s="2">
         <v>1114.7915632013901</v>
       </c>
-      <c r="G171">
+      <c r="H171" s="2">
         <v>2980.7823154464299</v>
       </c>
-      <c r="H171">
+      <c r="I171" s="2">
         <v>75.207550551537594</v>
-      </c>
-      <c r="I171">
-        <v>235</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -5890,20 +5896,20 @@
       <c r="D172" t="s">
         <v>0</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="2">
         <v>263.35121227016299</v>
       </c>
       <c r="F172">
+        <v>275</v>
+      </c>
+      <c r="G172" s="2">
         <v>911.55644701218205</v>
       </c>
-      <c r="G172">
+      <c r="H172" s="2">
         <v>4886.1616924683503</v>
       </c>
-      <c r="H172">
+      <c r="I172" s="2">
         <v>77.0141576844306</v>
-      </c>
-      <c r="I172">
-        <v>275</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -5919,20 +5925,20 @@
       <c r="D173" t="s">
         <v>0</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="2">
         <v>333.05441142279801</v>
       </c>
       <c r="F173">
+        <v>323</v>
+      </c>
+      <c r="G173" s="2">
         <v>562.67188834003105</v>
       </c>
-      <c r="G173">
+      <c r="H173" s="2">
         <v>3811.8953735678701</v>
       </c>
-      <c r="H173">
+      <c r="I173" s="2">
         <v>67.230648195813401</v>
-      </c>
-      <c r="I173">
-        <v>323</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -5948,20 +5954,20 @@
       <c r="D174" t="s">
         <v>2</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="2">
         <v>297.06338256317298</v>
       </c>
       <c r="F174">
+        <v>302</v>
+      </c>
+      <c r="G174" s="2">
         <v>820.99383613227599</v>
       </c>
-      <c r="G174" t="s">
-        <v>1</v>
-      </c>
-      <c r="H174">
+      <c r="H174" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I174" s="2">
         <v>79.763535282091198</v>
-      </c>
-      <c r="I174">
-        <v>302</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -5977,20 +5983,20 @@
       <c r="D175" t="s">
         <v>0</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="2">
         <v>385.59674663984202</v>
       </c>
       <c r="F175">
+        <v>370</v>
+      </c>
+      <c r="G175" s="2">
         <v>1262.1891172384701</v>
       </c>
-      <c r="G175">
+      <c r="H175" s="2">
         <v>3795.3076110193101</v>
       </c>
-      <c r="H175">
+      <c r="I175" s="2">
         <v>83.972876095924605</v>
-      </c>
-      <c r="I175">
-        <v>370</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -6006,20 +6012,20 @@
       <c r="D176" t="s">
         <v>0</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F176">
+        <v>272</v>
+      </c>
+      <c r="G176" s="2">
         <v>2122.2930736458902</v>
       </c>
-      <c r="G176">
+      <c r="H176" s="2">
         <v>3536.0778322111501</v>
       </c>
-      <c r="H176">
+      <c r="I176" s="2">
         <v>58.132736285026503</v>
-      </c>
-      <c r="I176">
-        <v>272</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -6035,20 +6041,20 @@
       <c r="D177" t="s">
         <v>0</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E177" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F177">
+        <v>278</v>
+      </c>
+      <c r="G177" s="2">
         <v>3080.4878170482102</v>
       </c>
-      <c r="G177">
+      <c r="H177" s="2">
         <v>4716.1437670592604</v>
       </c>
-      <c r="H177">
+      <c r="I177" s="2">
         <v>60.556315370188301</v>
-      </c>
-      <c r="I177">
-        <v>278</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -6064,20 +6070,20 @@
       <c r="D178" t="s">
         <v>0</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="2">
         <v>361.35899852855101</v>
       </c>
       <c r="F178">
+        <v>269</v>
+      </c>
+      <c r="G178" s="2">
         <v>1378.79693904285</v>
       </c>
-      <c r="G178" t="s">
-        <v>1</v>
-      </c>
-      <c r="H178">
+      <c r="H178" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I178" s="2">
         <v>79.687708460344396</v>
-      </c>
-      <c r="I178">
-        <v>269</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -6093,20 +6099,20 @@
       <c r="D179" t="s">
         <v>0</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="2">
         <v>251.42758285564801</v>
       </c>
       <c r="F179">
+        <v>257</v>
+      </c>
+      <c r="G179" s="2">
         <v>1091.29065729946</v>
       </c>
-      <c r="G179">
+      <c r="H179" s="2">
         <v>2465.2330401378099</v>
       </c>
-      <c r="H179">
+      <c r="I179" s="2">
         <v>69.946886128183394</v>
-      </c>
-      <c r="I179">
-        <v>257</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -6122,20 +6128,20 @@
       <c r="D180" t="s">
         <v>0</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="2">
         <v>317.86840195337402</v>
       </c>
       <c r="F180">
+        <v>292</v>
+      </c>
+      <c r="G180" s="2">
         <v>737.22335563054605</v>
       </c>
-      <c r="G180">
+      <c r="H180" s="2">
         <v>4235.8982335277997</v>
       </c>
-      <c r="H180">
+      <c r="I180" s="2">
         <v>83.557272238882405</v>
-      </c>
-      <c r="I180">
-        <v>292</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -6151,20 +6157,20 @@
       <c r="D181" t="s">
         <v>0</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E181" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F181">
+        <v>309</v>
+      </c>
+      <c r="G181" s="2">
         <v>2781.17336465383</v>
       </c>
-      <c r="G181" t="s">
-        <v>1</v>
-      </c>
-      <c r="H181">
+      <c r="H181" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I181" s="2">
         <v>81.900010031795105</v>
-      </c>
-      <c r="I181">
-        <v>309</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -6180,20 +6186,20 @@
       <c r="D182" t="s">
         <v>0</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="2">
         <v>282.08314517618101</v>
       </c>
       <c r="F182">
+        <v>290</v>
+      </c>
+      <c r="G182" s="2">
         <v>1632.0030634299801</v>
       </c>
-      <c r="G182">
+      <c r="H182" s="2">
         <v>3944.2511977733998</v>
       </c>
-      <c r="H182">
+      <c r="I182" s="2">
         <v>76.626899473703006</v>
-      </c>
-      <c r="I182">
-        <v>290</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -6209,20 +6215,20 @@
       <c r="D183" t="s">
         <v>0</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="2">
         <v>218.26305988859201</v>
       </c>
       <c r="F183">
+        <v>215</v>
+      </c>
+      <c r="G183" s="2">
         <v>3703.1913056623898</v>
       </c>
-      <c r="G183" t="s">
-        <v>1</v>
-      </c>
-      <c r="H183">
+      <c r="H183" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I183" s="2">
         <v>77.850123202317107</v>
-      </c>
-      <c r="I183">
-        <v>215</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -6238,20 +6244,20 @@
       <c r="D184" t="s">
         <v>0</v>
       </c>
-      <c r="E184">
+      <c r="E184" s="2">
         <v>349.105707130307</v>
       </c>
       <c r="F184">
+        <v>297</v>
+      </c>
+      <c r="G184" s="2">
         <v>685.19209373376395</v>
       </c>
-      <c r="G184" t="s">
-        <v>1</v>
-      </c>
-      <c r="H184">
+      <c r="H184" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I184" s="2">
         <v>81.550789430656494</v>
-      </c>
-      <c r="I184">
-        <v>297</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -6267,20 +6273,20 @@
       <c r="D185" t="s">
         <v>0</v>
       </c>
-      <c r="E185">
+      <c r="E185" s="2">
         <v>395.20237420690597</v>
       </c>
       <c r="F185">
+        <v>394</v>
+      </c>
+      <c r="G185" s="2">
         <v>1449.3650915166299</v>
       </c>
-      <c r="G185">
+      <c r="H185" s="2">
         <v>2736.5304767402199</v>
       </c>
-      <c r="H185">
+      <c r="I185" s="2">
         <v>80.655590231784899</v>
-      </c>
-      <c r="I185">
-        <v>394</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -6296,20 +6302,20 @@
       <c r="D186" t="s">
         <v>0</v>
       </c>
-      <c r="E186">
+      <c r="E186" s="2">
         <v>334.66759817369802</v>
       </c>
       <c r="F186">
+        <v>339</v>
+      </c>
+      <c r="G186" s="2">
         <v>682.72369870918897</v>
       </c>
-      <c r="G186" t="s">
-        <v>1</v>
-      </c>
-      <c r="H186">
+      <c r="H186" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I186" s="2">
         <v>65.737144759615802</v>
-      </c>
-      <c r="I186">
-        <v>339</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -6325,20 +6331,20 @@
       <c r="D187" t="s">
         <v>0</v>
       </c>
-      <c r="E187">
+      <c r="E187" s="2">
         <v>357.74209808062801</v>
       </c>
       <c r="F187">
+        <v>356</v>
+      </c>
+      <c r="G187" s="2">
         <v>683.41117555665596</v>
       </c>
-      <c r="G187" t="s">
-        <v>1</v>
-      </c>
-      <c r="H187">
+      <c r="H187" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I187" s="2">
         <v>62.383863560765697</v>
-      </c>
-      <c r="I187">
-        <v>356</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -6354,20 +6360,20 @@
       <c r="D188" t="s">
         <v>0</v>
       </c>
-      <c r="E188">
+      <c r="E188" s="2">
         <v>323.85618787688702</v>
       </c>
       <c r="F188">
+        <v>331</v>
+      </c>
+      <c r="G188" s="2">
         <v>405.48071586255998</v>
       </c>
-      <c r="G188">
+      <c r="H188" s="2">
         <v>5196.4924916243699</v>
       </c>
-      <c r="H188">
+      <c r="I188" s="2">
         <v>73.484053247153497</v>
-      </c>
-      <c r="I188">
-        <v>331</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -6383,20 +6389,20 @@
       <c r="D189" t="s">
         <v>0</v>
       </c>
-      <c r="E189">
+      <c r="E189" s="2">
         <v>218.664591373604</v>
       </c>
       <c r="F189">
+        <v>223</v>
+      </c>
+      <c r="G189" s="2">
         <v>311.63868321202199</v>
       </c>
-      <c r="G189">
+      <c r="H189" s="2">
         <v>3390.8670542786299</v>
       </c>
-      <c r="H189">
+      <c r="I189" s="2">
         <v>73.603776639251393</v>
-      </c>
-      <c r="I189">
-        <v>223</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -6412,20 +6418,20 @@
       <c r="D190" t="s">
         <v>0</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="2">
         <v>294.74671602810002</v>
       </c>
       <c r="F190">
+        <v>303</v>
+      </c>
+      <c r="G190" s="2">
         <v>1167.7803137277001</v>
       </c>
-      <c r="G190">
+      <c r="H190" s="2">
         <v>2042.0522329284199</v>
       </c>
-      <c r="H190">
+      <c r="I190" s="2">
         <v>78.522558869313201</v>
-      </c>
-      <c r="I190">
-        <v>303</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -6441,20 +6447,20 @@
       <c r="D191" t="s">
         <v>0</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="2">
         <v>260.370519864161</v>
       </c>
       <c r="F191">
+        <v>261</v>
+      </c>
+      <c r="G191" s="2">
         <v>1236.7841632636901</v>
       </c>
-      <c r="G191" t="s">
-        <v>1</v>
-      </c>
-      <c r="H191">
+      <c r="H191" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I191" s="2">
         <v>73.090605912399297</v>
-      </c>
-      <c r="I191">
-        <v>261</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -6470,20 +6476,20 @@
       <c r="D192" t="s">
         <v>0</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="2">
         <v>158.31409452437799</v>
       </c>
       <c r="F192">
+        <v>283</v>
+      </c>
+      <c r="G192" s="2">
         <v>1222.6039705354201</v>
       </c>
-      <c r="G192">
+      <c r="H192" s="2">
         <v>5015.0194079876201</v>
       </c>
-      <c r="H192">
+      <c r="I192" s="2">
         <v>75.217070346708297</v>
-      </c>
-      <c r="I192">
-        <v>283</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -6499,20 +6505,20 @@
       <c r="D193" t="s">
         <v>0</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="2">
         <v>387.32491591883797</v>
       </c>
       <c r="F193">
+        <v>323</v>
+      </c>
+      <c r="G193" s="2">
         <v>1552.91775758677</v>
       </c>
-      <c r="G193" t="s">
-        <v>1</v>
-      </c>
-      <c r="H193">
+      <c r="H193" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I193" s="2">
         <v>76.003401150163995</v>
-      </c>
-      <c r="I193">
-        <v>323</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -6528,20 +6534,20 @@
       <c r="D194" t="s">
         <v>0</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="2">
         <v>123.076576210349</v>
       </c>
-      <c r="F194" t="s">
-        <v>1</v>
-      </c>
-      <c r="G194" t="s">
-        <v>1</v>
-      </c>
-      <c r="H194">
+      <c r="F194">
+        <v>119</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I194" s="2">
         <v>60.928992543795303</v>
-      </c>
-      <c r="I194">
-        <v>119</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -6557,20 +6563,20 @@
       <c r="D195" t="s">
         <v>0</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="2">
         <v>331.195795921838</v>
       </c>
       <c r="F195">
+        <v>324</v>
+      </c>
+      <c r="G195" s="2">
         <v>736.72588437238005</v>
       </c>
-      <c r="G195" t="s">
-        <v>1</v>
-      </c>
-      <c r="H195">
+      <c r="H195" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I195" s="2">
         <v>69.435538091643295</v>
-      </c>
-      <c r="I195">
-        <v>324</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -6586,20 +6592,20 @@
       <c r="D196" t="s">
         <v>0</v>
       </c>
-      <c r="E196">
+      <c r="E196" s="2">
         <v>333.93060090212498</v>
       </c>
       <c r="F196">
+        <v>323</v>
+      </c>
+      <c r="G196" s="2">
         <v>1815.7436957820601</v>
       </c>
-      <c r="G196" t="s">
-        <v>1</v>
-      </c>
-      <c r="H196">
+      <c r="H196" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I196" s="2">
         <v>80.179934626640502</v>
-      </c>
-      <c r="I196">
-        <v>323</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -6615,20 +6621,20 @@
       <c r="D197" t="s">
         <v>0</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F197">
+        <v>261</v>
+      </c>
+      <c r="G197" s="2">
         <v>2425.5013825743599</v>
       </c>
-      <c r="G197">
+      <c r="H197" s="2">
         <v>4557.5054184625897</v>
       </c>
-      <c r="H197">
+      <c r="I197" s="2">
         <v>61.014747488752498</v>
-      </c>
-      <c r="I197">
-        <v>261</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -6644,20 +6650,20 @@
       <c r="D198" t="s">
         <v>0</v>
       </c>
-      <c r="E198">
+      <c r="E198" s="2">
         <v>375.41479090314903</v>
       </c>
       <c r="F198">
+        <v>373</v>
+      </c>
+      <c r="G198" s="2">
         <v>434.65850627411402</v>
       </c>
-      <c r="G198">
+      <c r="H198" s="2">
         <v>4336.31592863484</v>
       </c>
-      <c r="H198">
+      <c r="I198" s="2">
         <v>81.645532950575998</v>
-      </c>
-      <c r="I198">
-        <v>373</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -6673,20 +6679,20 @@
       <c r="D199" t="s">
         <v>0</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F199">
+        <v>211</v>
+      </c>
+      <c r="G199" s="2">
         <v>1024.6136045961</v>
       </c>
-      <c r="G199">
+      <c r="H199" s="2">
         <v>4813.5805153969604</v>
       </c>
-      <c r="H199">
+      <c r="I199" s="2">
         <v>56.293680239560601</v>
-      </c>
-      <c r="I199">
-        <v>211</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -6702,20 +6708,20 @@
       <c r="D200" t="s">
         <v>0</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F200">
+        <v>308</v>
+      </c>
+      <c r="G200" s="2">
         <v>1878.8608530732899</v>
       </c>
-      <c r="G200">
+      <c r="H200" s="2">
         <v>4962.0943690837203</v>
       </c>
-      <c r="H200">
+      <c r="I200" s="2">
         <v>64.541938466760001</v>
-      </c>
-      <c r="I200">
-        <v>308</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -6731,20 +6737,20 @@
       <c r="D201" t="s">
         <v>0</v>
       </c>
-      <c r="E201">
+      <c r="E201" s="2">
         <v>380.804843533856</v>
       </c>
       <c r="F201">
+        <v>387</v>
+      </c>
+      <c r="G201" s="2">
         <v>512.67574220059998</v>
       </c>
-      <c r="G201">
+      <c r="H201" s="2">
         <v>3911.5848998746701</v>
       </c>
-      <c r="H201">
+      <c r="I201" s="2">
         <v>72.830489907032401</v>
-      </c>
-      <c r="I201">
-        <v>387</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -6760,20 +6766,20 @@
       <c r="D202" t="s">
         <v>2</v>
       </c>
-      <c r="E202">
+      <c r="E202" s="2">
         <v>113.925972401667</v>
       </c>
       <c r="F202">
+        <v>115</v>
+      </c>
+      <c r="G202" s="2">
         <v>792.77820773198198</v>
       </c>
-      <c r="G202">
+      <c r="H202" s="2">
         <v>3961.4982052526798</v>
       </c>
-      <c r="H202">
+      <c r="I202" s="2">
         <v>77.802856847268004</v>
-      </c>
-      <c r="I202">
-        <v>115</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -6789,20 +6795,20 @@
       <c r="D203" t="s">
         <v>0</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F203">
+        <v>341</v>
+      </c>
+      <c r="G203" s="2">
         <v>1574.50259045281</v>
       </c>
-      <c r="G203">
+      <c r="H203" s="2">
         <v>4394.31122748487</v>
       </c>
-      <c r="H203">
+      <c r="I203" s="2">
         <v>47.408797501457101</v>
-      </c>
-      <c r="I203">
-        <v>341</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -6818,20 +6824,20 @@
       <c r="D204" t="s">
         <v>0</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="2">
         <v>275.39764718124798</v>
       </c>
       <c r="F204">
+        <v>280</v>
+      </c>
+      <c r="G204" s="2">
         <v>763.37339237760102</v>
       </c>
-      <c r="G204">
+      <c r="H204" s="2">
         <v>3851.2643554687802</v>
       </c>
-      <c r="H204">
+      <c r="I204" s="2">
         <v>80.847937071420304</v>
-      </c>
-      <c r="I204">
-        <v>280</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -6847,20 +6853,20 @@
       <c r="D205" t="s">
         <v>0</v>
       </c>
-      <c r="E205">
+      <c r="E205" s="2">
         <v>283.87909935672798</v>
       </c>
       <c r="F205">
+        <v>278</v>
+      </c>
+      <c r="G205" s="2">
         <v>813.43424254631202</v>
       </c>
-      <c r="G205">
+      <c r="H205" s="2">
         <v>3698.3955076217599</v>
       </c>
-      <c r="H205">
+      <c r="I205" s="2">
         <v>78.830737034319895</v>
-      </c>
-      <c r="I205">
-        <v>278</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -6876,20 +6882,20 @@
       <c r="D206" t="s">
         <v>2</v>
       </c>
-      <c r="E206">
+      <c r="E206" s="2">
         <v>337.36375898687999</v>
       </c>
       <c r="F206">
+        <v>302</v>
+      </c>
+      <c r="G206" s="2">
         <v>1105.28028475211</v>
       </c>
-      <c r="G206">
+      <c r="H206" s="2">
         <v>4663.1660510105703</v>
       </c>
-      <c r="H206">
+      <c r="I206" s="2">
         <v>63.205279061488497</v>
-      </c>
-      <c r="I206">
-        <v>302</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -6905,20 +6911,20 @@
       <c r="D207" t="s">
         <v>0</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E207" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F207">
+        <v>243</v>
+      </c>
+      <c r="G207" s="2">
         <v>1010.82887300191</v>
       </c>
-      <c r="G207">
+      <c r="H207" s="2">
         <v>1278.88559070306</v>
       </c>
-      <c r="H207">
+      <c r="I207" s="2">
         <v>81.043096920094101</v>
-      </c>
-      <c r="I207">
-        <v>243</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -6934,20 +6940,20 @@
       <c r="D208" t="s">
         <v>0</v>
       </c>
-      <c r="E208">
+      <c r="E208" s="2">
         <v>363.82154263621601</v>
       </c>
       <c r="F208">
+        <v>302</v>
+      </c>
+      <c r="G208" s="2">
         <v>1159.7970111971499</v>
       </c>
-      <c r="G208">
+      <c r="H208" s="2">
         <v>5416.10858490597</v>
       </c>
-      <c r="H208">
+      <c r="I208" s="2">
         <v>62.509868077935998</v>
-      </c>
-      <c r="I208">
-        <v>302</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -6963,20 +6969,20 @@
       <c r="D209" t="s">
         <v>0</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E209" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F209">
+        <v>275</v>
+      </c>
+      <c r="G209" s="2">
         <v>851.89883100955205</v>
       </c>
-      <c r="G209">
+      <c r="H209" s="2">
         <v>3892.08544334513</v>
       </c>
-      <c r="H209">
+      <c r="I209" s="2">
         <v>61.538708480240501</v>
-      </c>
-      <c r="I209">
-        <v>275</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -6992,20 +6998,20 @@
       <c r="D210" t="s">
         <v>0</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E210" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F210">
+        <v>311</v>
+      </c>
+      <c r="G210" s="2">
         <v>3364.6727935344202</v>
       </c>
-      <c r="G210" t="s">
-        <v>1</v>
-      </c>
-      <c r="H210">
+      <c r="H210" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I210" s="2">
         <v>57.224634574833999</v>
-      </c>
-      <c r="I210">
-        <v>311</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -7021,20 +7027,20 @@
       <c r="D211" t="s">
         <v>0</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F211">
+        <v>316</v>
+      </c>
+      <c r="G211" s="2">
         <v>1639.2485621088899</v>
       </c>
-      <c r="G211">
+      <c r="H211" s="2">
         <v>3807.6308544071399</v>
       </c>
-      <c r="H211">
+      <c r="I211" s="2">
         <v>57.057067126000597</v>
-      </c>
-      <c r="I211">
-        <v>316</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -7050,20 +7056,20 @@
       <c r="D212" t="s">
         <v>0</v>
       </c>
-      <c r="E212">
+      <c r="E212" s="2">
         <v>335.66933138544198</v>
       </c>
       <c r="F212">
+        <v>325</v>
+      </c>
+      <c r="G212" s="2">
         <v>817.92099328113397</v>
       </c>
-      <c r="G212">
+      <c r="H212" s="2">
         <v>3423.9698437761299</v>
       </c>
-      <c r="H212">
+      <c r="I212" s="2">
         <v>83.146973307446601</v>
-      </c>
-      <c r="I212">
-        <v>325</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -7079,20 +7085,20 @@
       <c r="D213" t="s">
         <v>0</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E213" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F213">
+        <v>209</v>
+      </c>
+      <c r="G213" s="2">
         <v>848.18777851504399</v>
       </c>
-      <c r="G213">
+      <c r="H213" s="2">
         <v>3897.7679473991502</v>
       </c>
-      <c r="H213">
+      <c r="I213" s="2">
         <v>52.825612142669002</v>
-      </c>
-      <c r="I213">
-        <v>209</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -7108,20 +7114,20 @@
       <c r="D214" t="s">
         <v>0</v>
       </c>
-      <c r="E214">
+      <c r="E214" s="2">
         <v>294.41390739288198</v>
       </c>
       <c r="F214">
+        <v>302</v>
+      </c>
+      <c r="G214" s="2">
         <v>1199.79525974949</v>
       </c>
-      <c r="G214">
+      <c r="H214" s="2">
         <v>4378.4885145144499</v>
       </c>
-      <c r="H214">
+      <c r="I214" s="2">
         <v>75.615054904623094</v>
-      </c>
-      <c r="I214">
-        <v>302</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -7137,20 +7143,20 @@
       <c r="D215" t="s">
         <v>2</v>
       </c>
-      <c r="E215">
+      <c r="E215" s="2">
         <v>333.85764702614398</v>
       </c>
       <c r="F215">
+        <v>333</v>
+      </c>
+      <c r="G215" s="2">
         <v>787.284141247241</v>
       </c>
-      <c r="G215" t="s">
-        <v>1</v>
-      </c>
-      <c r="H215">
+      <c r="H215" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I215" s="2">
         <v>66.246994818391101</v>
-      </c>
-      <c r="I215">
-        <v>333</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -7166,20 +7172,20 @@
       <c r="D216" t="s">
         <v>0</v>
       </c>
-      <c r="E216">
+      <c r="E216" s="2">
         <v>212.95019179714799</v>
       </c>
       <c r="F216">
+        <v>277</v>
+      </c>
+      <c r="G216" s="2">
         <v>1132.4308097004</v>
       </c>
-      <c r="G216">
+      <c r="H216" s="2">
         <v>3051.45934688228</v>
       </c>
-      <c r="H216">
+      <c r="I216" s="2">
         <v>83.300521762526699</v>
-      </c>
-      <c r="I216">
-        <v>277</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -7195,20 +7201,20 @@
       <c r="D217" t="s">
         <v>0</v>
       </c>
-      <c r="E217">
+      <c r="E217" s="2">
         <v>348.54708128918702</v>
       </c>
       <c r="F217">
+        <v>259</v>
+      </c>
+      <c r="G217" s="2">
         <v>572.31061049343896</v>
       </c>
-      <c r="G217">
+      <c r="H217" s="2">
         <v>3977.5508300034298</v>
       </c>
-      <c r="H217">
+      <c r="I217" s="2">
         <v>77.059856103571306</v>
-      </c>
-      <c r="I217">
-        <v>259</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -7224,20 +7230,20 @@
       <c r="D218" t="s">
         <v>0</v>
       </c>
-      <c r="E218">
+      <c r="E218" s="2">
         <v>225.60623944216599</v>
       </c>
       <c r="F218">
+        <v>224</v>
+      </c>
+      <c r="G218" s="2">
         <v>943.81125943056099</v>
       </c>
-      <c r="G218">
+      <c r="H218" s="2">
         <v>2237.7125313356601</v>
       </c>
-      <c r="H218">
+      <c r="I218" s="2">
         <v>82.781941889372007</v>
-      </c>
-      <c r="I218">
-        <v>224</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -7253,23 +7259,24 @@
       <c r="D219" t="s">
         <v>0</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="2">
         <v>364.50420663124999</v>
       </c>
       <c r="F219">
+        <v>363</v>
+      </c>
+      <c r="G219" s="2">
         <v>495.38051822949302</v>
       </c>
-      <c r="G219">
+      <c r="H219" s="2">
         <v>3718.5077789665002</v>
       </c>
-      <c r="H219">
+      <c r="I219" s="2">
         <v>82.527407508529905</v>
-      </c>
-      <c r="I219">
-        <v>363</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>